--- a/4-Message Core 消息核心.xlsx
+++ b/4-Message Core 消息核心.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="553">
   <si>
     <t xml:space="preserve">Message Core 消息核心 #4 </t>
   </si>
@@ -300,7 +300,20 @@
     <t>无法修改</t>
   </si>
   <si>
-    <t>全局</t>
+    <r>
+      <t xml:space="preserve">效果
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（全局）</t>
+    </r>
   </si>
   <si>
     <t>\V[n]</t>
@@ -500,7 +513,20 @@
     <t>将\作为文本输入</t>
   </si>
   <si>
-    <t>仅消息窗口</t>
+    <r>
+      <t xml:space="preserve">效果
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（仅消息窗口）</t>
+    </r>
   </si>
   <si>
     <t>\$</t>
@@ -853,7 +879,20 @@
     <t>仅限于战斗。调整消息窗口的大小并将其放置在敌人精灵的头上</t>
   </si>
   <si>
-    <t>仅战斗</t>
+    <r>
+      <t xml:space="preserve">效果
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（仅战斗）</t>
+    </r>
   </si>
   <si>
     <t>&lt;Current Battle Target&gt;</t>
@@ -935,7 +974,20 @@
     <t>战斗中，当前动作名称（没有图标）</t>
   </si>
   <si>
-    <t>仅选项窗口</t>
+    <r>
+      <t xml:space="preserve">效果
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（仅选项窗口）</t>
+    </r>
   </si>
   <si>
     <t>&lt;Show&gt;</t>
@@ -1142,7 +1194,20 @@
 隐藏的选项不计入x数。</t>
   </si>
   <si>
-    <t>背景效果（仅限选项窗口）</t>
+    <r>
+      <t xml:space="preserve">背景效果
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（仅选项窗口）</t>
+    </r>
   </si>
   <si>
     <t>&lt;BgImg: filename&gt;</t>
@@ -1193,7 +1258,20 @@
     <t>右上</t>
   </si>
   <si>
-    <t>前景效果（仅限选项窗口）</t>
+    <r>
+      <t xml:space="preserve">前景效果
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（仅选项窗口）</t>
+    </r>
   </si>
   <si>
     <t>&lt;FgImg: filename&gt;</t>
@@ -1223,7 +1301,20 @@
     <t>&lt;FgImg UpperRight: filename&gt;</t>
   </si>
   <si>
-    <t>仅名称窗口</t>
+    <r>
+      <t xml:space="preserve">效果
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（仅名称窗口）</t>
+    </r>
   </si>
   <si>
     <t>&lt;Left&gt;</t>
@@ -1306,6 +1397,10 @@
   <si>
     <t>将消息窗口偏移值快速调整为x和y值。
 这些值将替换以前的偏移设置（如果有）。</t>
+  </si>
+  <si>
+    <t>需要
+VisuMZ_0_CoreEngine</t>
   </si>
   <si>
     <t>&lt;Up Button&gt;
@@ -1336,6 +1431,9 @@
   </si>
   <si>
     <t>可在插件参数更改</t>
+  </si>
+  <si>
+    <t>全局</t>
   </si>
   <si>
     <t>\Class[x]</t>
@@ -1596,6 +1694,9 @@
   </si>
   <si>
     <t>将窗口位置重置为原始位置</t>
+  </si>
+  <si>
+    <t>仅消息窗口</t>
   </si>
   <si>
     <t>\ActorFace[x]</t>
@@ -2935,7 +3036,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3005,6 +3106,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3176,9 +3284,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3551,16 +3687,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3569,119 +3702,122 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3751,6 +3887,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3814,23 +3953,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -4383,8 +4525,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="52"/>
-      <c r="B1" s="53" t="s">
+      <c r="A1" s="54"/>
+      <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4680,8 +4822,8 @@
   <sheetPr/>
   <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4715,7 +4857,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="24"/>
       <c r="B3" t="s">
         <v>76</v>
       </c>
@@ -4724,7 +4866,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" t="s">
         <v>78</v>
       </c>
@@ -4733,7 +4875,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" t="s">
         <v>80</v>
       </c>
@@ -4742,46 +4884,46 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="29" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="26"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" t="s">
         <v>90</v>
       </c>
@@ -4790,7 +4932,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" t="s">
         <v>92</v>
       </c>
@@ -4799,27 +4941,27 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="26"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="24"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" s="21" customFormat="1" spans="1:4">
-      <c r="A13" s="31"/>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="24"/>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="23" t="s">
         <v>98</v>
       </c>
       <c r="B14" t="s">
@@ -4830,7 +4972,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" t="s">
         <v>101</v>
       </c>
@@ -4839,7 +4981,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" t="s">
         <v>103</v>
       </c>
@@ -4848,7 +4990,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="32"/>
+      <c r="A17" s="33"/>
       <c r="B17" t="s">
         <v>105</v>
       </c>
@@ -4857,7 +4999,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="32"/>
+      <c r="A18" s="33"/>
       <c r="B18" t="s">
         <v>107</v>
       </c>
@@ -4866,7 +5008,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="32"/>
+      <c r="A19" s="33"/>
       <c r="B19" t="s">
         <v>109</v>
       </c>
@@ -4875,7 +5017,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="32"/>
+      <c r="A20" s="33"/>
       <c r="B20" t="s">
         <v>111</v>
       </c>
@@ -4905,7 +5047,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
       <c r="B23" t="s">
         <v>116</v>
       </c>
@@ -4914,7 +5056,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="24"/>
       <c r="B24" t="s">
         <v>118</v>
       </c>
@@ -4923,17 +5065,17 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="24"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="23"/>
+      <c r="A26" s="24"/>
       <c r="B26" t="s">
         <v>122</v>
       </c>
@@ -4945,7 +5087,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="24"/>
       <c r="B27" t="s">
         <v>125</v>
       </c>
@@ -4954,7 +5096,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="23"/>
+      <c r="A28" s="24"/>
       <c r="B28" t="s">
         <v>127</v>
       </c>
@@ -4966,7 +5108,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="24"/>
       <c r="B29" t="s">
         <v>129</v>
       </c>
@@ -4975,7 +5117,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="23"/>
+      <c r="A30" s="24"/>
       <c r="B30" t="s">
         <v>131</v>
       </c>
@@ -4987,17 +5129,17 @@
       </c>
     </row>
     <row r="31" s="21" customFormat="1" spans="1:4">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="24"/>
+      <c r="D31" s="25"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
       <c r="B32" t="s">
         <v>135</v>
       </c>
@@ -5006,17 +5148,17 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24" t="s">
+      <c r="A33" s="24"/>
+      <c r="B33" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="24"/>
+      <c r="D33" s="25"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
       <c r="B34" t="s">
         <v>139</v>
       </c>
@@ -5028,7 +5170,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="23"/>
+      <c r="A35" s="24"/>
       <c r="B35" t="s">
         <v>142</v>
       </c>
@@ -5040,7 +5182,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="24"/>
       <c r="B36" t="s">
         <v>144</v>
       </c>
@@ -5049,17 +5191,17 @@
       </c>
     </row>
     <row r="37" s="21" customFormat="1" spans="1:4">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24" t="s">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="24"/>
+      <c r="D37" s="25"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="24"/>
       <c r="B38" t="s">
         <v>148</v>
       </c>
@@ -5068,14 +5210,14 @@
       </c>
     </row>
     <row r="39" s="21" customFormat="1" spans="1:4">
-      <c r="A39" s="31"/>
-      <c r="B39" s="24" t="s">
+      <c r="A39" s="32"/>
+      <c r="B39" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="24"/>
+      <c r="D39" s="25"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="23" t="s">
@@ -5089,108 +5231,108 @@
       </c>
     </row>
     <row r="41" s="21" customFormat="1" spans="1:4">
-      <c r="A41" s="31"/>
-      <c r="B41" s="24" t="s">
+      <c r="A41" s="32"/>
+      <c r="B41" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="D41" s="24"/>
+      <c r="D41" s="25"/>
     </row>
     <row r="42" s="22" customFormat="1" ht="36" spans="1:4">
-      <c r="A42" s="23"/>
-      <c r="B42" s="24" t="s">
+      <c r="A42" s="24"/>
+      <c r="B42" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="34" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="23"/>
+      <c r="A43" s="24"/>
       <c r="B43" t="s">
         <v>159</v>
       </c>
       <c r="C43" t="s">
         <v>160</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D43" s="35" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="23"/>
+      <c r="A44" s="24"/>
       <c r="B44" t="s">
         <v>162</v>
       </c>
       <c r="C44" t="s">
         <v>163</v>
       </c>
-      <c r="D44" s="34"/>
+      <c r="D44" s="35"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="23"/>
+      <c r="A45" s="24"/>
       <c r="B45" t="s">
         <v>164</v>
       </c>
       <c r="C45" t="s">
         <v>165</v>
       </c>
-      <c r="D45" s="34"/>
+      <c r="D45" s="35"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="23"/>
+      <c r="A46" s="24"/>
       <c r="B46" t="s">
         <v>166</v>
       </c>
       <c r="C46" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="34"/>
+      <c r="D46" s="35"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="23"/>
+      <c r="A47" s="24"/>
       <c r="B47" t="s">
         <v>168</v>
       </c>
       <c r="C47" t="s">
         <v>169</v>
       </c>
-      <c r="D47" s="34"/>
+      <c r="D47" s="35"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="23"/>
+      <c r="A48" s="24"/>
       <c r="B48" t="s">
         <v>170</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="D48" s="34"/>
+      <c r="D48" s="35"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="23"/>
+      <c r="A49" s="24"/>
       <c r="B49" t="s">
         <v>172</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="D49" s="34"/>
+      <c r="D49" s="35"/>
     </row>
     <row r="50" s="21" customFormat="1" spans="1:4">
-      <c r="A50" s="31"/>
-      <c r="B50" s="24" t="s">
+      <c r="A50" s="32"/>
+      <c r="B50" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="D50" s="37"/>
+      <c r="D50" s="38"/>
     </row>
     <row r="51" s="22" customFormat="1" spans="1:4">
       <c r="A51" s="23" t="s">
@@ -5202,39 +5344,39 @@
       <c r="C51" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D51" s="38" t="s">
+      <c r="D51" s="39" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="52" s="22" customFormat="1" spans="1:4">
-      <c r="A52" s="23"/>
+      <c r="A52" s="24"/>
       <c r="B52" t="s">
         <v>180</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D52" s="34"/>
+      <c r="D52" s="35"/>
     </row>
     <row r="53" s="22" customFormat="1" spans="1:4">
-      <c r="A53" s="23"/>
+      <c r="A53" s="24"/>
       <c r="B53" t="s">
         <v>182</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D53" s="34"/>
+      <c r="D53" s="35"/>
     </row>
     <row r="54" s="22" customFormat="1" spans="1:4">
-      <c r="A54" s="31"/>
-      <c r="B54" s="24" t="s">
+      <c r="A54" s="32"/>
+      <c r="B54" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="D54" s="37"/>
+      <c r="D54" s="38"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="23" t="s">
@@ -5248,7 +5390,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="23"/>
+      <c r="A56" s="24"/>
       <c r="B56" t="s">
         <v>189</v>
       </c>
@@ -5257,7 +5399,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="23"/>
+      <c r="A57" s="24"/>
       <c r="B57" t="s">
         <v>191</v>
       </c>
@@ -5266,7 +5408,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="23"/>
+      <c r="A58" s="24"/>
       <c r="B58" t="s">
         <v>193</v>
       </c>
@@ -5275,17 +5417,17 @@
       </c>
     </row>
     <row r="59" s="21" customFormat="1" spans="1:4">
-      <c r="A59" s="23"/>
-      <c r="B59" s="24" t="s">
+      <c r="A59" s="24"/>
+      <c r="B59" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="D59" s="24"/>
+      <c r="D59" s="25"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="23"/>
+      <c r="A60" s="24"/>
       <c r="B60" t="s">
         <v>196</v>
       </c>
@@ -5294,7 +5436,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="23"/>
+      <c r="A61" s="24"/>
       <c r="B61" t="s">
         <v>198</v>
       </c>
@@ -5303,7 +5445,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="23"/>
+      <c r="A62" s="24"/>
       <c r="B62" t="s">
         <v>200</v>
       </c>
@@ -5312,7 +5454,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="23"/>
+      <c r="A63" s="24"/>
       <c r="B63" t="s">
         <v>202</v>
       </c>
@@ -5321,17 +5463,17 @@
       </c>
     </row>
     <row r="64" s="21" customFormat="1" spans="1:4">
-      <c r="A64" s="23"/>
-      <c r="B64" s="24" t="s">
+      <c r="A64" s="24"/>
+      <c r="B64" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="D64" s="24"/>
+      <c r="D64" s="25"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="23"/>
+      <c r="A65" s="24"/>
       <c r="B65" t="s">
         <v>205</v>
       </c>
@@ -5340,7 +5482,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="23"/>
+      <c r="A66" s="24"/>
       <c r="B66" t="s">
         <v>207</v>
       </c>
@@ -5349,7 +5491,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="23"/>
+      <c r="A67" s="24"/>
       <c r="B67" t="s">
         <v>209</v>
       </c>
@@ -5358,7 +5500,7 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="23"/>
+      <c r="A68" s="24"/>
       <c r="B68" t="s">
         <v>211</v>
       </c>
@@ -5368,17 +5510,17 @@
       <c r="E68"/>
     </row>
     <row r="69" s="21" customFormat="1" spans="1:4">
-      <c r="A69" s="23"/>
-      <c r="B69" s="24" t="s">
+      <c r="A69" s="24"/>
+      <c r="B69" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="D69" s="24"/>
+      <c r="D69" s="25"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="23"/>
+      <c r="A70" s="24"/>
       <c r="B70" t="s">
         <v>214</v>
       </c>
@@ -5387,7 +5529,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="23"/>
+      <c r="A71" s="24"/>
       <c r="B71" t="s">
         <v>216</v>
       </c>
@@ -5396,7 +5538,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="23"/>
+      <c r="A72" s="24"/>
       <c r="B72" t="s">
         <v>218</v>
       </c>
@@ -5405,7 +5547,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="23"/>
+      <c r="A73" s="24"/>
       <c r="B73" t="s">
         <v>220</v>
       </c>
@@ -5414,106 +5556,106 @@
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:4">
-      <c r="A74" s="23"/>
-      <c r="B74" s="24" t="s">
+      <c r="A74" s="24"/>
+      <c r="B74" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C74" s="24" t="s">
+      <c r="C74" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="D74" s="24"/>
+      <c r="D74" s="25"/>
     </row>
     <row r="75" customFormat="1" spans="1:4">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24" t="s">
+      <c r="A75" s="24"/>
+      <c r="B75" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="C75" s="39" t="s">
+      <c r="C75" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="D75" s="24"/>
+      <c r="D75" s="25"/>
     </row>
     <row r="76" customFormat="1" spans="1:4">
-      <c r="A76" s="23"/>
-      <c r="B76" s="24" t="s">
+      <c r="A76" s="24"/>
+      <c r="B76" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="C76" s="25" t="s">
+      <c r="C76" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="D76" s="24"/>
+      <c r="D76" s="25"/>
     </row>
     <row r="77" customFormat="1" spans="1:3">
-      <c r="A77" s="23"/>
-      <c r="B77" s="40" t="s">
+      <c r="A77" s="24"/>
+      <c r="B77" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="C77" s="41" t="s">
+      <c r="C77" s="42" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:4">
-      <c r="A78" s="23"/>
-      <c r="B78" s="40" t="s">
+      <c r="A78" s="24"/>
+      <c r="B78" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="C78" s="41" t="s">
+      <c r="C78" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="D78" s="41"/>
+      <c r="D78" s="42"/>
     </row>
     <row r="79" customFormat="1" spans="1:4">
-      <c r="A79" s="23"/>
-      <c r="B79" s="40" t="s">
+      <c r="A79" s="24"/>
+      <c r="B79" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="C79" s="41" t="s">
+      <c r="C79" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="D79" s="41"/>
+      <c r="D79" s="42"/>
     </row>
     <row r="80" s="22" customFormat="1" spans="1:4">
-      <c r="A80" s="23"/>
-      <c r="B80" s="42" t="s">
+      <c r="A80" s="24"/>
+      <c r="B80" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="C80" s="42" t="s">
+      <c r="C80" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="D80" s="42"/>
+      <c r="D80" s="43"/>
     </row>
     <row r="81" s="21" customFormat="1" ht="27" spans="1:4">
-      <c r="A81" s="31"/>
-      <c r="B81" s="42" t="s">
+      <c r="A81" s="32"/>
+      <c r="B81" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="C81" s="43" t="s">
+      <c r="C81" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="D81" s="42"/>
+      <c r="D81" s="43"/>
     </row>
     <row r="82" s="21" customFormat="1" ht="27" spans="1:4">
-      <c r="A82" s="31"/>
-      <c r="B82" s="42" t="s">
+      <c r="A82" s="32"/>
+      <c r="B82" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="C82" s="43" t="s">
+      <c r="C82" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="D82" s="42"/>
+      <c r="D82" s="43"/>
     </row>
     <row r="83" s="21" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A83" s="31"/>
-      <c r="B83" s="42" t="s">
+      <c r="A83" s="32"/>
+      <c r="B83" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="C83" s="43" t="s">
+      <c r="C83" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="D83" s="42"/>
+      <c r="D83" s="43"/>
     </row>
     <row r="84" s="22" customFormat="1" spans="1:3">
-      <c r="A84" s="44" t="s">
+      <c r="A84" s="23" t="s">
         <v>241</v>
       </c>
       <c r="B84" s="22" t="s">
@@ -5524,7 +5666,7 @@
       </c>
     </row>
     <row r="85" s="22" customFormat="1" spans="1:3">
-      <c r="A85" s="44"/>
+      <c r="A85" s="46"/>
       <c r="B85" s="22" t="s">
         <v>244</v>
       </c>
@@ -5533,7 +5675,7 @@
       </c>
     </row>
     <row r="86" s="22" customFormat="1" spans="1:3">
-      <c r="A86" s="44"/>
+      <c r="A86" s="46"/>
       <c r="B86" s="22" t="s">
         <v>246</v>
       </c>
@@ -5542,7 +5684,7 @@
       </c>
     </row>
     <row r="87" s="22" customFormat="1" spans="1:3">
-      <c r="A87" s="44"/>
+      <c r="A87" s="46"/>
       <c r="B87" s="22" t="s">
         <v>248</v>
       </c>
@@ -5551,7 +5693,7 @@
       </c>
     </row>
     <row r="88" s="22" customFormat="1" spans="1:3">
-      <c r="A88" s="44"/>
+      <c r="A88" s="46"/>
       <c r="B88" s="22" t="s">
         <v>250</v>
       </c>
@@ -5560,7 +5702,7 @@
       </c>
     </row>
     <row r="89" s="22" customFormat="1" spans="1:3">
-      <c r="A89" s="44"/>
+      <c r="A89" s="46"/>
       <c r="B89" s="22" t="s">
         <v>252</v>
       </c>
@@ -5569,7 +5711,7 @@
       </c>
     </row>
     <row r="90" s="22" customFormat="1" spans="1:3">
-      <c r="A90" s="44"/>
+      <c r="A90" s="46"/>
       <c r="B90" s="22" t="s">
         <v>254</v>
       </c>
@@ -5578,17 +5720,17 @@
       </c>
     </row>
     <row r="91" s="22" customFormat="1" spans="1:4">
-      <c r="A91" s="46"/>
-      <c r="B91" s="42" t="s">
+      <c r="A91" s="47"/>
+      <c r="B91" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="C91" s="43" t="s">
+      <c r="C91" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="D91" s="42"/>
+      <c r="D91" s="43"/>
     </row>
     <row r="92" s="22" customFormat="1" spans="1:3">
-      <c r="A92" s="44" t="s">
+      <c r="A92" s="23" t="s">
         <v>258</v>
       </c>
       <c r="B92" s="22" t="s">
@@ -5599,7 +5741,7 @@
       </c>
     </row>
     <row r="93" s="22" customFormat="1" spans="1:3">
-      <c r="A93" s="44"/>
+      <c r="A93" s="46"/>
       <c r="B93" s="22" t="s">
         <v>261</v>
       </c>
@@ -5608,7 +5750,7 @@
       </c>
     </row>
     <row r="94" s="22" customFormat="1" spans="1:3">
-      <c r="A94" s="44"/>
+      <c r="A94" s="46"/>
       <c r="B94" s="22" t="s">
         <v>262</v>
       </c>
@@ -5617,7 +5759,7 @@
       </c>
     </row>
     <row r="95" s="22" customFormat="1" spans="1:3">
-      <c r="A95" s="44"/>
+      <c r="A95" s="46"/>
       <c r="B95" s="22" t="s">
         <v>263</v>
       </c>
@@ -5626,7 +5768,7 @@
       </c>
     </row>
     <row r="96" s="22" customFormat="1" spans="1:3">
-      <c r="A96" s="44"/>
+      <c r="A96" s="46"/>
       <c r="B96" s="22" t="s">
         <v>264</v>
       </c>
@@ -5635,7 +5777,7 @@
       </c>
     </row>
     <row r="97" s="22" customFormat="1" spans="1:3">
-      <c r="A97" s="44"/>
+      <c r="A97" s="46"/>
       <c r="B97" s="22" t="s">
         <v>265</v>
       </c>
@@ -5644,7 +5786,7 @@
       </c>
     </row>
     <row r="98" s="22" customFormat="1" spans="1:3">
-      <c r="A98" s="44"/>
+      <c r="A98" s="46"/>
       <c r="B98" s="22" t="s">
         <v>266</v>
       </c>
@@ -5653,28 +5795,28 @@
       </c>
     </row>
     <row r="99" s="22" customFormat="1" spans="1:3">
-      <c r="A99" s="44"/>
+      <c r="A99" s="46"/>
       <c r="B99" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="C99" s="43" t="s">
+      <c r="C99" s="44" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="47" t="s">
+      <c r="A100" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="B100" s="48" t="s">
+      <c r="B100" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="C100" s="48" t="s">
+      <c r="C100" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="D100" s="48"/>
+      <c r="D100" s="49"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="23"/>
+      <c r="A101" s="24"/>
       <c r="B101" t="s">
         <v>271</v>
       </c>
@@ -5683,7 +5825,7 @@
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="23"/>
+      <c r="A102" s="24"/>
       <c r="B102" t="s">
         <v>273</v>
       </c>
@@ -5692,7 +5834,7 @@
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="23"/>
+      <c r="A103" s="24"/>
       <c r="B103" t="s">
         <v>275</v>
       </c>
@@ -5701,7 +5843,7 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="23"/>
+      <c r="A104" s="24"/>
       <c r="B104" t="s">
         <v>277</v>
       </c>
@@ -5710,7 +5852,7 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="23"/>
+      <c r="A105" s="24"/>
       <c r="B105" t="s">
         <v>279</v>
       </c>
@@ -5719,14 +5861,14 @@
       </c>
     </row>
     <row r="106" s="21" customFormat="1" spans="1:4">
-      <c r="A106" s="31"/>
-      <c r="B106" s="24" t="s">
+      <c r="A106" s="32"/>
+      <c r="B106" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="C106" s="24" t="s">
+      <c r="C106" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="D106" s="24"/>
+      <c r="D106" s="25"/>
     </row>
     <row r="107" s="21" customFormat="1" spans="1:5">
       <c r="A107" s="23" t="s">
@@ -5738,7 +5880,7 @@
       <c r="C107" t="s">
         <v>284</v>
       </c>
-      <c r="D107" s="49" t="s">
+      <c r="D107" s="50" t="s">
         <v>285</v>
       </c>
       <c r="E107" t="s">
@@ -5746,479 +5888,481 @@
       </c>
     </row>
     <row r="108" s="21" customFormat="1" spans="1:5">
-      <c r="A108" s="23"/>
+      <c r="A108" s="24"/>
       <c r="B108" t="s">
         <v>287</v>
       </c>
       <c r="C108" t="s">
         <v>288</v>
       </c>
-      <c r="D108" s="49"/>
+      <c r="D108" s="50"/>
       <c r="E108" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="109" s="21" customFormat="1" spans="1:5">
-      <c r="A109" s="23"/>
+      <c r="A109" s="24"/>
       <c r="B109" t="s">
         <v>290</v>
       </c>
       <c r="C109" t="s">
         <v>291</v>
       </c>
-      <c r="D109" s="49"/>
+      <c r="D109" s="50"/>
       <c r="E109" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="110" s="21" customFormat="1" ht="54" spans="1:5">
-      <c r="A110" s="23"/>
+      <c r="A110" s="24"/>
       <c r="B110" s="10" t="s">
         <v>293</v>
       </c>
       <c r="C110" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="D110" s="49"/>
+      <c r="D110" s="50"/>
       <c r="E110"/>
     </row>
     <row r="111" s="21" customFormat="1" ht="135" spans="1:5">
-      <c r="A111" s="23"/>
+      <c r="A111" s="51" t="s">
+        <v>295</v>
+      </c>
       <c r="B111" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C111" t="s">
-        <v>296</v>
-      </c>
-      <c r="D111" s="49"/>
+        <v>297</v>
+      </c>
+      <c r="D111" s="50"/>
       <c r="E111"/>
     </row>
     <row r="112" s="21" customFormat="1" spans="1:5">
-      <c r="A112" s="23" t="s">
-        <v>297</v>
+      <c r="A112" s="24" t="s">
+        <v>298</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C112" t="s">
-        <v>299</v>
-      </c>
-      <c r="D112" s="49"/>
+        <v>300</v>
+      </c>
+      <c r="D112" s="50"/>
       <c r="E112"/>
     </row>
     <row r="113" s="21" customFormat="1" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B113" s="50"/>
+        <v>301</v>
+      </c>
+      <c r="B113" s="52"/>
       <c r="C113" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D113" s="50"/>
+        <v>302</v>
+      </c>
+      <c r="D113" s="52"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="23" t="s">
-        <v>73</v>
+      <c r="A114" s="24" t="s">
+        <v>303</v>
       </c>
       <c r="B114" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C114" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="23"/>
-      <c r="B115" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="D115" s="24"/>
+      <c r="A115" s="24"/>
+      <c r="B115" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="D115" s="25"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="23"/>
+      <c r="A116" s="24"/>
       <c r="B116" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C116" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="23"/>
-      <c r="B117" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="C117" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="D117" s="24"/>
+      <c r="A117" s="24"/>
+      <c r="B117" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="C117" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="D117" s="25"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="23"/>
+      <c r="A118" s="24"/>
       <c r="B118" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C118" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="23"/>
+      <c r="A119" s="24"/>
       <c r="B119" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C119" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="23"/>
-      <c r="B120" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="C120" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="D120" s="24"/>
+      <c r="A120" s="24"/>
+      <c r="B120" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="D120" s="25"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="23"/>
+      <c r="A121" s="24"/>
       <c r="B121" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C121" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="23"/>
+      <c r="A122" s="24"/>
       <c r="B122" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C122" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="23"/>
-      <c r="B123" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="C123" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="D123" s="24"/>
+      <c r="A123" s="24"/>
+      <c r="B123" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="C123" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="D123" s="25"/>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="23"/>
+      <c r="A124" s="24"/>
       <c r="B124" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C124" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="23"/>
+      <c r="A125" s="24"/>
       <c r="B125" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C125" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="23"/>
-      <c r="B126" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="C126" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="D126" s="24"/>
+      <c r="A126" s="24"/>
+      <c r="B126" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="D126" s="25"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="23"/>
+      <c r="A127" s="24"/>
       <c r="B127" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C127" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="23"/>
+      <c r="A128" s="24"/>
       <c r="B128" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C128" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="23"/>
-      <c r="B129" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="C129" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="D129" s="24"/>
+      <c r="A129" s="24"/>
+      <c r="B129" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="C129" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="D129" s="25"/>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="23"/>
+      <c r="A130" s="24"/>
       <c r="B130" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C130" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="23"/>
-      <c r="B131" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="C131" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="D131" s="24"/>
+      <c r="A131" s="24"/>
+      <c r="B131" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="C131" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D131" s="25"/>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="23"/>
+      <c r="A132" s="24"/>
       <c r="B132" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C132" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="23"/>
-      <c r="B133" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="C133" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="D133" s="24"/>
+      <c r="A133" s="24"/>
+      <c r="B133" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="C133" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="D133" s="25"/>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="23"/>
+      <c r="A134" s="24"/>
       <c r="B134" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C134" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="23"/>
-      <c r="B135" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="C135" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="D135" s="24"/>
+      <c r="A135" s="24"/>
+      <c r="B135" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="C135" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="D135" s="25"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="23"/>
+      <c r="A136" s="24"/>
       <c r="B136" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="137" s="21" customFormat="1" spans="1:4">
-      <c r="A137" s="23"/>
-      <c r="B137" s="24" t="s">
-        <v>348</v>
-      </c>
-      <c r="C137" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="D137" s="24"/>
+      <c r="A137" s="24"/>
+      <c r="B137" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C137" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="D137" s="25"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="23"/>
+      <c r="A138" s="24"/>
       <c r="B138" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C138" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="23"/>
+      <c r="A139" s="24"/>
       <c r="B139" t="s">
         <v>279</v>
       </c>
       <c r="C139" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="23"/>
-      <c r="B140" s="24" t="s">
+      <c r="A140" s="24"/>
+      <c r="B140" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="C140" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="D140" s="24"/>
+      <c r="C140" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="D140" s="25"/>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="23"/>
+      <c r="A141" s="24"/>
       <c r="B141" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C141" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="23"/>
-      <c r="B142" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="C142" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="D142" s="24"/>
+      <c r="A142" s="24"/>
+      <c r="B142" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="C142" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D142" s="25"/>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="23"/>
+      <c r="A143" s="24"/>
       <c r="B143" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C143" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="23"/>
+      <c r="A144" s="24"/>
       <c r="B144" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C144" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="23"/>
+      <c r="A145" s="24"/>
       <c r="B145" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C145" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="23"/>
+      <c r="A146" s="24"/>
       <c r="B146" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C146" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="23"/>
-      <c r="B147" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="C147" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="D147" s="24"/>
+      <c r="A147" s="24"/>
+      <c r="B147" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C147" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="D147" s="25"/>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="23"/>
+      <c r="A148" s="24"/>
       <c r="B148" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C148" t="s">
-        <v>369</v>
-      </c>
-      <c r="D148" s="51" t="s">
-        <v>370</v>
+        <v>371</v>
+      </c>
+      <c r="D148" s="53" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="23"/>
+      <c r="A149" s="24"/>
       <c r="B149" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C149" t="s">
-        <v>372</v>
-      </c>
-      <c r="D149" s="51" t="s">
-        <v>373</v>
+        <v>374</v>
+      </c>
+      <c r="D149" s="53" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="150" s="21" customFormat="1" spans="1:4">
-      <c r="A150" s="31"/>
-      <c r="B150" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="C150" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="D150" s="24"/>
+      <c r="A150" s="32"/>
+      <c r="B150" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="C150" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="D150" s="25"/>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="23" t="s">
-        <v>98</v>
+      <c r="A151" s="24" t="s">
+        <v>378</v>
       </c>
       <c r="B151" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C151" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="23"/>
+      <c r="A152" s="24"/>
       <c r="B152" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C152" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="23"/>
+      <c r="A153" s="24"/>
       <c r="B153" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C153" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="23"/>
-      <c r="B154" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="C154" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="D154" s="24"/>
+      <c r="A154" s="24"/>
+      <c r="B154" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="C154" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="D154" s="25"/>
     </row>
     <row r="155" s="21" customFormat="1" spans="1:4">
-      <c r="A155" s="31"/>
-      <c r="B155" s="24" t="s">
-        <v>384</v>
-      </c>
-      <c r="C155" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="D155" s="24"/>
+      <c r="A155" s="32"/>
+      <c r="B155" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="C155" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="D155" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -6262,36 +6406,36 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
       <c r="A1" s="18" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" ht="49.5" spans="1:2">
       <c r="A2" s="19" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" ht="37.5" spans="1:2">
       <c r="A3" s="19" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="1:1">
       <c r="A5" s="18" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:16384">
       <c r="A6" s="19" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="11"/>
@@ -22678,68 +22822,68 @@
     </row>
     <row r="7" ht="73.5" spans="1:2">
       <c r="A7" s="19" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" ht="18.75" spans="1:1">
       <c r="A9" s="18" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" ht="220.5" spans="1:2">
       <c r="A10" s="19" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" ht="25.5" spans="1:2">
       <c r="A11" s="19" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:2">
       <c r="A12" s="19" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" ht="18.75" spans="1:1">
       <c r="A14" s="18" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" ht="99" spans="1:2">
       <c r="A15" s="19" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" ht="135" spans="1:2">
       <c r="A16" s="19" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" ht="163.5" spans="1:2">
       <c r="A17" s="19" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -22768,30 +22912,30 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B3" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C3" s="3">
         <v>4</v>
@@ -22799,10 +22943,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B4" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C4" s="3">
         <v>816</v>
@@ -22810,264 +22954,264 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B10" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="51" spans="1:4">
       <c r="A11" s="10" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:4">
       <c r="A12" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B13" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B14" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B15" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:4">
       <c r="A16" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B17" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B18" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B19" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B20" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B21" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:4">
       <c r="A22" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B24" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B25" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B26" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="18.75" spans="1:4">
       <c r="A27" s="13" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:4">
       <c r="A28" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" customFormat="1" spans="1:4">
       <c r="A29" s="14" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="3"/>
@@ -23075,395 +23219,395 @@
     </row>
     <row r="30" s="2" customFormat="1" spans="1:4">
       <c r="A30" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="14" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B31" s="14"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="18.75" spans="1:4">
       <c r="A32" s="13" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:4">
       <c r="A33" s="15" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
     </row>
     <row r="34" ht="27" spans="1:2">
       <c r="A34" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:2">
       <c r="A35" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B36" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B37" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="18.75" spans="1:4">
       <c r="A38" s="13" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
     <row r="39" ht="27" spans="1:2">
       <c r="A39" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:2">
       <c r="A40" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B42" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="18.75" spans="1:4">
       <c r="A43" s="13" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
     </row>
     <row r="44" ht="27" spans="1:2">
       <c r="A44" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B46" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="18.75" spans="1:4">
       <c r="A47" s="13" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:4">
       <c r="A48" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
     </row>
     <row r="49" customFormat="1" spans="1:4">
       <c r="A49" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B49" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
     <row r="50" customFormat="1" spans="1:4">
       <c r="A50" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
     <row r="51" s="2" customFormat="1" spans="1:4">
       <c r="A51" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" customFormat="1" spans="1:4">
       <c r="A52" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B52" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
     <row r="53" customFormat="1" spans="1:4">
       <c r="A53" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B53" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
     </row>
     <row r="54" customFormat="1" spans="1:4">
       <c r="A54" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B54" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
     <row r="55" s="2" customFormat="1" spans="1:4">
       <c r="A55" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
     </row>
     <row r="56" customFormat="1" spans="1:4">
       <c r="A56" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B56" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
     <row r="57" customFormat="1" spans="1:4">
       <c r="A57" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B57" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
     </row>
     <row r="58" s="2" customFormat="1" spans="1:4">
       <c r="A58" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="18.75" spans="1:4">
       <c r="A59" s="13" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B60" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B61" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B62" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B64" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" ht="18.75" spans="1:4">
       <c r="A65" s="13" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
     </row>
     <row r="66" s="2" customFormat="1" spans="1:4">
       <c r="A66" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B67" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B68" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="69" s="2" customFormat="1" spans="1:4">
       <c r="A69" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
     </row>
     <row r="70" ht="27" spans="1:3">
       <c r="A70" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B71" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B72" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/4-Message Core 消息核心.xlsx
+++ b/4-Message Core 消息核心.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="24045" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="视频翻译" sheetId="4" r:id="rId1"/>
+    <sheet name="介绍" sheetId="4" r:id="rId1"/>
     <sheet name="文本代码（转移字符）" sheetId="5" r:id="rId2"/>
     <sheet name="插件命令" sheetId="3" r:id="rId3"/>
     <sheet name="插件参数" sheetId="1" r:id="rId4"/>
@@ -79,7 +79,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="633">
+  <si>
+    <t>http://www.yanfly.moe/wiki/Message_Core_VisuStella_MZ</t>
+  </si>
+  <si>
+    <t>视频翻译</t>
+  </si>
   <si>
     <t xml:space="preserve">Message Core 消息核心 #4 </t>
   </si>
@@ -294,6 +300,421 @@
     <t>Next video,we'll be talking about the Events &amp; Movement Core! See you then!</t>
   </si>
   <si>
+    <t>介绍</t>
+  </si>
+  <si>
+    <t>Message Core插件扩展并建立在RPG Maker MZ的消息功能之上，并允许游戏开发人员自定义游戏消息系统的工作流程。</t>
+  </si>
+  <si>
+    <t>功能包括以下所有（但不限于）：</t>
+  </si>
+  <si>
+    <t>·控制常规消息设置。</t>
+  </si>
+  <si>
+    <t>·自动为关键字和/或数据库条目上色。</t>
+  </si>
+  <si>
+    <t>·增加可用于执行更新功能/效果的文本代码。</t>
+  </si>
+  <si>
+    <t>·实现自定义文本代码操作的能力。</t>
+  </si>
+  <si>
+    <t>·实现自定义文本代码字符串替换的功能。</t>
+  </si>
+  <si>
+    <t>·调用宏系统以加快开发过程。</t>
+  </si>
+  <si>
+    <t>·将“文字速度”选项添加到“选项”菜单中。</t>
+  </si>
+  <si>
+    <t>·将非常有用的Word Wrap添加到您的邮件系统中。</t>
+  </si>
+  <si>
+    <t>·根据您的喜好扩展选择过程。</t>
+  </si>
+  <si>
+    <t>·启用/禁用以及显示/隐藏某些选项的功能。</t>
+  </si>
+  <si>
+    <t>重大改变</t>
+  </si>
+  <si>
+    <t>Dim Background Extension    暗淡背景扩展</t>
+  </si>
+  <si>
+    <t>以前，当使用“暗淡背景”作为“显示文本”事件的一部分时，其大小仅与消息窗口本身的宽度相同。</t>
+  </si>
+  <si>
+    <t>这看起来真的很难看，因为它的硬边被切掉了，而其他地方可以看到渐变。</t>
+  </si>
+  <si>
+    <t>为了让它看起来更好，我们将调暗的背景扩展到屏幕的宽度。</t>
+  </si>
+  <si>
+    <t>Extended Messages    扩展消息</t>
+  </si>
+  <si>
+    <t>如果决定扩展消息窗口的大小以允许显示更多行，则可以通过将“显示消息”事件链接在一起键入这些行的数据。</t>
+  </si>
+  <si>
+    <t>只要有足够的行，它们就会相互获取数据并在同一消息窗口中显示。</t>
+  </si>
+  <si>
+    <t>Extended Choice Lists    扩展选项列表</t>
+  </si>
+  <si>
+    <t>只需将一个“选项列表”事件沿着同一缩进依次链接到另一个事件，就可以扩展选项列表。</t>
+  </si>
+  <si>
+    <t>如果在同一缩进级别上，它们之间存在“选项列表”选项以外的任何事件，则它们不会扩展。</t>
+  </si>
+  <si>
+    <t>文本语言转换信息</t>
+  </si>
+  <si>
+    <t>从消息核心1.46版本开始，添加了文本语言切换。</t>
+  </si>
+  <si>
+    <t>“Text Language”功能允许您的玩家在游戏的不同语言之间切换，让来自世界各地的人享受您要讲的故事。</t>
+  </si>
+  <si>
+    <t>免责声明：这不是一个自动翻译工具。通过VisuStella MZ Message Core的“文本语言”功能进行翻译需要游戏开发者手动输入。</t>
+  </si>
+  <si>
+    <t>如何启用切换</t>
+  </si>
+  <si>
+    <t>默认情况下，“文本语言”未启用。以下是您必须执行的操作：</t>
+  </si>
+  <si>
+    <t>1、打开消息核心的插件参数</t>
+  </si>
+  <si>
+    <t>2、Plugin Parameters &gt; Text Language Settings &gt; Enable Switching?</t>
+  </si>
+  <si>
+    <t>3、将“启用切换？”参数设置更改为“true”。</t>
+  </si>
+  <si>
+    <t>4、根据需要调整任何其他设置。</t>
+  </si>
+  <si>
+    <t>5、保存插件参数更改。</t>
+  </si>
+  <si>
+    <t>6、保存您的游戏。</t>
+  </si>
+  <si>
+    <t>现在，是时候获取CSV文件了，该文件将包含用于翻译游戏脚本的所有文本。</t>
+  </si>
+  <si>
+    <t>2、将出现一个弹出窗口，要求创建一个语言CSV文件。</t>
+  </si>
+  <si>
+    <t>3、单击“OK”，让插件完成它的任务。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4、项目的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/data/folder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 文件夹将显示 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Language.csv</t>
+    </r>
+  </si>
+  <si>
+    <t>5、然后插件会要求您重新启动游戏。</t>
+  </si>
+  <si>
+    <t>如何编辑 Language CSV</t>
+  </si>
+  <si>
+    <t>CSV语言的结构与普通CSV文件相同，这也意味着它可以在Microsoft Excel或Google Sheets等程序中进行修改。
+我们建议使用其中任何一个程序来修改文本。</t>
+  </si>
+  <si>
+    <t>我们不建议直接在记事本等程序中修改CSV文件，因为某些事情（如逗号（，））的处理方式以及容易出错。</t>
+  </si>
+  <si>
+    <t>该表一开始会显示如下内容：</t>
+  </si>
+  <si>
+    <t>“Key”列是指用于确定将哪些行插入文本的参考键。带有语言的列将使用该语言的相应短语。
+您可以删除包含不打算为游戏翻译的语言的列。</t>
+  </si>
+  <si>
+    <t>需要牢记的事项</t>
+  </si>
+  <si>
+    <t>当通过电子表格编辑器（Microsoft Excel或Google Sheets）将文本添加到CSV文件时，需要记住以下几点。</t>
+  </si>
+  <si>
+    <t>Line Breaks  换行符</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">如果要在翻译的短语中插入换行符，请使用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;br&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文本代码。这最适用于要传输到消息窗口或帮助窗口的文本。</t>
+    </r>
+  </si>
+  <si>
+    <t>Text Codes  文本代码</t>
+  </si>
+  <si>
+    <t>像\C[2]这样的文本代码可以正常插入。
+但是，它们仅适用于支持文本代码的窗口，如消息窗口或帮助窗口。
+否则，文本代码将无法正确传输。</t>
+  </si>
+  <si>
+    <t>Semicolons  分号</t>
+  </si>
+  <si>
+    <t>由于CSV文件的性质，我们使用分号（；）作为分隔符。</t>
+  </si>
+  <si>
+    <t>因此，不应在文本条目中使用分号。</t>
+  </si>
+  <si>
+    <t>虽然有些句子可以使用分号，但并不是所有的句子都可以。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">如果确实要使用分号，请使用文本代码 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;semicolon&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Example:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  "The pancakes were delicious</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;semicolon&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> they were fluffy and sweet."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">分号文本代码的其他变体是 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;semi&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 和 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;semi-colon&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;semicolon&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文本代码和变体仅适用于Language CSV，否则在常规消息框条目中键入时会被忽略。</t>
+    </r>
+  </si>
+  <si>
+    <t>宏和语言开关</t>
+  </si>
+  <si>
+    <t>对于那些同时使用文本宏和文本语言开关的人，宏将在语言开关之前转换为文本，因为这样可以更好地进行文本转换。</t>
+  </si>
+  <si>
+    <t>如何使用参考键</t>
+  </si>
+  <si>
+    <t>还记得“Key”列和引用键吗？</t>
+  </si>
+  <si>
+    <t>这些用于确定消息窗口和任何其他窗口的文本中将插入哪些行。</t>
+  </si>
+  <si>
+    <t>然而，为了使这些keys发挥作用，必须使用这些keys。</t>
+  </si>
+  <si>
+    <t>“text code”格式是这样工作的。使用以下任意一项：</t>
+  </si>
+  <si>
+    <t>\tl{keyName}</t>
+  </si>
+  <si>
+    <t>\translate{keyName}</t>
+  </si>
+  <si>
+    <t>\loc{keyName}</t>
+  </si>
+  <si>
+    <t>\locale{keyName}</t>
+  </si>
+  <si>
+    <t>\localize{keyName}</t>
+  </si>
+  <si>
+    <t>或者对于那些来自不同翻译插件但希望切换到VisuStella MZ Message Core的翻译系统的用户：</t>
+  </si>
+  <si>
+    <t>${keyName}</t>
+  </si>
+  <si>
+    <t>例如，要使用由Language CSV制作的默认键之一：</t>
+  </si>
+  <si>
+    <t>\tl{Greeting}</t>
+  </si>
+  <si>
+    <t>这将产生英语的"Hello"，中文的"你好"，日语的"こんにちは"和韩语的"안녕하세요"</t>
+  </si>
+  <si>
+    <t>关键字名称不区分大小写，将从中删除任何尾随空格，以确保CSV表稳定，可以引用中的任何翻译文本。</t>
+  </si>
+  <si>
+    <t>你可以将这些语言“文本代码”插入到物品名称、技能名称等以及系统条目中，如攻击、防御等。</t>
+  </si>
+  <si>
     <t>RPG Maker MZ 自带</t>
   </si>
   <si>
@@ -301,6 +722,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">效果
 </t>
     </r>
@@ -514,6 +942,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">效果
 </t>
     </r>
@@ -880,6 +1315,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">效果
 </t>
     </r>
@@ -975,6 +1417,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">效果
 </t>
     </r>
@@ -1195,6 +1644,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">背景效果
 </t>
     </r>
@@ -1259,6 +1715,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">前景效果
 </t>
     </r>
@@ -1302,6 +1765,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">效果
 </t>
     </r>
@@ -2798,7 +3268,7 @@
     <t>JavaScript代码，用于确定出现匹配项时将显示的文本。</t>
   </si>
   <si>
-    <t>Text Macros  文本宏</t>
+    <t>Text Code Macros  文本代码宏</t>
   </si>
   <si>
     <t>Match:</t>
@@ -3036,7 +3506,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3123,6 +3593,35 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3286,14 +3785,6 @@
     <font>
       <sz val="10"/>
       <color theme="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3690,134 +4181,134 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3980,11 +4471,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4048,6 +4566,221 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1952625</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="MessageCore ExtendMessages.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8696325" y="9344025"/>
+          <a:ext cx="1800225" cy="1380490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1914525</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="MessageCore ExtendChoices.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8658225" y="11010900"/>
+          <a:ext cx="1800225" cy="2157095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5715000</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="MessageCore LanguageSwitch0.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="11858625"/>
+          <a:ext cx="5715000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5246370</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1198245</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="MessageCore LanguageSwitch2.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5598795" y="14110335"/>
+          <a:ext cx="4143375" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="16487775"/>
+          <a:ext cx="8496300" cy="1162050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4136,7 +4869,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4512,308 +5245,717 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="92.75" customWidth="1"/>
-    <col min="2" max="2" width="66.75" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="107.5" customWidth="1"/>
+    <col min="3" max="3" width="66.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="54"/>
+    <row r="1" spans="2:2">
       <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="2:3">
+      <c r="B2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="56" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
         <v>65</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
         <v>67</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
         <v>69</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>70</v>
       </c>
     </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" ht="18.75" spans="1:1">
+      <c r="A39" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" s="54" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A53" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="57"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:2">
+      <c r="A59" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="57"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:2">
+      <c r="A63" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="57"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" s="54" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A68" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:2">
+      <c r="A76" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="57"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" spans="1:2">
+      <c r="A91" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B91" s="57"/>
+    </row>
+    <row r="92" ht="27" spans="2:2">
+      <c r="B92" s="59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" ht="27" spans="2:2">
+      <c r="B102" s="59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" customFormat="1" spans="1:2">
+      <c r="A104" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104" s="57"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="60" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="60" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" ht="40.5" spans="2:2">
+      <c r="B110" s="59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="117" ht="27" spans="2:2">
+      <c r="B117" s="61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118" ht="27" spans="2:2">
+      <c r="B118" s="62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="60" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="123" customFormat="1" spans="1:2">
+      <c r="A123" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B123" s="57"/>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="63" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="63" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="63" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId2" display="http://www.yanfly.moe/wiki/Message_Core_VisuStella_MZ"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4822,8 +5964,8 @@
   <sheetPr/>
   <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4837,1530 +5979,1530 @@
   <sheetData>
     <row r="1" s="20" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="23" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="24"/>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="24"/>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="24"/>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="24"/>
       <c r="B6" s="25" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="27"/>
       <c r="B7" s="28" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="27"/>
       <c r="B8" s="30" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="24"/>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="24"/>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="27"/>
       <c r="B12" s="30" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="D12" s="25"/>
     </row>
     <row r="13" s="21" customFormat="1" spans="1:4">
       <c r="A13" s="32"/>
       <c r="B13" s="25" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="D13" s="25"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="23" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="33"/>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="33"/>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="33"/>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="33"/>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="33"/>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="33"/>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" s="20" customFormat="1" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="23" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="24"/>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="24"/>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="24"/>
       <c r="B25" s="25" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="D25" s="25"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="24"/>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="24"/>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="24"/>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="24"/>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="24"/>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" s="21" customFormat="1" spans="1:4">
       <c r="A31" s="24"/>
       <c r="B31" s="25" t="s">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="D31" s="25"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="24"/>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="C32" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="24"/>
       <c r="B33" s="25" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="D33" s="25"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="24"/>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="24"/>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="24"/>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" s="21" customFormat="1" spans="1:4">
       <c r="A37" s="24"/>
       <c r="B37" s="25" t="s">
-        <v>146</v>
+        <v>226</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="D37" s="25"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="24"/>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" s="21" customFormat="1" spans="1:4">
       <c r="A39" s="32"/>
       <c r="B39" s="25" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>151</v>
+        <v>231</v>
       </c>
       <c r="D39" s="25"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="23" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="B40" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>153</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" s="21" customFormat="1" spans="1:4">
       <c r="A41" s="32"/>
       <c r="B41" s="25" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="D41" s="25"/>
     </row>
     <row r="42" s="22" customFormat="1" ht="36" spans="1:4">
       <c r="A42" s="24"/>
       <c r="B42" s="25" t="s">
-        <v>156</v>
+        <v>236</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>158</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="24"/>
       <c r="B43" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="C43" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="24"/>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>242</v>
       </c>
       <c r="C44" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="D44" s="35"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="24"/>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="D45" s="35"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="24"/>
       <c r="B46" t="s">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="D46" s="35"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="24"/>
       <c r="B47" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="C47" t="s">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="D47" s="35"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="24"/>
       <c r="B48" t="s">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="D48" s="35"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="24"/>
       <c r="B49" t="s">
-        <v>172</v>
+        <v>252</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="D49" s="35"/>
     </row>
     <row r="50" s="21" customFormat="1" spans="1:4">
       <c r="A50" s="32"/>
       <c r="B50" s="25" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="D50" s="38"/>
     </row>
     <row r="51" s="22" customFormat="1" spans="1:4">
       <c r="A51" s="23" t="s">
-        <v>176</v>
+        <v>256</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>257</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>178</v>
+        <v>258</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>179</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" s="22" customFormat="1" spans="1:4">
       <c r="A52" s="24"/>
       <c r="B52" t="s">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>181</v>
+        <v>261</v>
       </c>
       <c r="D52" s="35"/>
     </row>
     <row r="53" s="22" customFormat="1" spans="1:4">
       <c r="A53" s="24"/>
       <c r="B53" t="s">
-        <v>182</v>
+        <v>262</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>183</v>
+        <v>263</v>
       </c>
       <c r="D53" s="35"/>
     </row>
     <row r="54" s="22" customFormat="1" spans="1:4">
       <c r="A54" s="32"/>
       <c r="B54" s="25" t="s">
-        <v>184</v>
+        <v>264</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="D54" s="38"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="23" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="C55" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="24"/>
       <c r="B56" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="C56" t="s">
-        <v>190</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="24"/>
       <c r="B57" t="s">
-        <v>191</v>
+        <v>271</v>
       </c>
       <c r="C57" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="24"/>
       <c r="B58" t="s">
-        <v>193</v>
+        <v>273</v>
       </c>
       <c r="C58" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" s="21" customFormat="1" spans="1:4">
       <c r="A59" s="24"/>
       <c r="B59" s="25" t="s">
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>195</v>
+        <v>275</v>
       </c>
       <c r="D59" s="25"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="24"/>
       <c r="B60" t="s">
-        <v>196</v>
+        <v>276</v>
       </c>
       <c r="C60" t="s">
-        <v>197</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="24"/>
       <c r="B61" t="s">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="C61" t="s">
-        <v>199</v>
+        <v>279</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="24"/>
       <c r="B62" t="s">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="C62" t="s">
-        <v>201</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="24"/>
       <c r="B63" t="s">
-        <v>202</v>
+        <v>282</v>
       </c>
       <c r="C63" t="s">
-        <v>201</v>
+        <v>281</v>
       </c>
     </row>
     <row r="64" s="21" customFormat="1" spans="1:4">
       <c r="A64" s="24"/>
       <c r="B64" s="25" t="s">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>204</v>
+        <v>284</v>
       </c>
       <c r="D64" s="25"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="24"/>
       <c r="B65" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="C65" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="24"/>
       <c r="B66" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C66" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="24"/>
       <c r="B67" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="C67" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="24"/>
       <c r="B68" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="C68" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="E68"/>
     </row>
     <row r="69" s="21" customFormat="1" spans="1:4">
       <c r="A69" s="24"/>
       <c r="B69" s="25" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="D69" s="25"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="24"/>
       <c r="B70" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="C70" t="s">
-        <v>215</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="24"/>
       <c r="B71" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="C71" t="s">
-        <v>217</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="24"/>
       <c r="B72" t="s">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="C72" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="24"/>
       <c r="B73" t="s">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="C73" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:4">
       <c r="A74" s="24"/>
       <c r="B74" s="25" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="D74" s="25"/>
     </row>
     <row r="75" customFormat="1" spans="1:4">
       <c r="A75" s="24"/>
       <c r="B75" s="25" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="D75" s="25"/>
     </row>
     <row r="76" customFormat="1" spans="1:4">
       <c r="A76" s="24"/>
       <c r="B76" s="25" t="s">
-        <v>225</v>
+        <v>305</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>226</v>
+        <v>306</v>
       </c>
       <c r="D76" s="25"/>
     </row>
     <row r="77" customFormat="1" spans="1:3">
       <c r="A77" s="24"/>
       <c r="B77" s="41" t="s">
-        <v>227</v>
+        <v>307</v>
       </c>
       <c r="C77" s="42" t="s">
-        <v>228</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:4">
       <c r="A78" s="24"/>
       <c r="B78" s="41" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
       <c r="C78" s="42" t="s">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="D78" s="42"/>
     </row>
     <row r="79" customFormat="1" spans="1:4">
       <c r="A79" s="24"/>
       <c r="B79" s="41" t="s">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="D79" s="42"/>
     </row>
     <row r="80" s="22" customFormat="1" spans="1:4">
       <c r="A80" s="24"/>
       <c r="B80" s="43" t="s">
-        <v>233</v>
+        <v>313</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>234</v>
+        <v>314</v>
       </c>
       <c r="D80" s="43"/>
     </row>
     <row r="81" s="21" customFormat="1" ht="27" spans="1:4">
       <c r="A81" s="32"/>
       <c r="B81" s="43" t="s">
-        <v>235</v>
+        <v>315</v>
       </c>
       <c r="C81" s="44" t="s">
-        <v>236</v>
+        <v>316</v>
       </c>
       <c r="D81" s="43"/>
     </row>
     <row r="82" s="21" customFormat="1" ht="27" spans="1:4">
       <c r="A82" s="32"/>
       <c r="B82" s="43" t="s">
-        <v>237</v>
+        <v>317</v>
       </c>
       <c r="C82" s="44" t="s">
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="D82" s="43"/>
     </row>
     <row r="83" s="21" customFormat="1" ht="40.5" spans="1:4">
       <c r="A83" s="32"/>
       <c r="B83" s="43" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="C83" s="44" t="s">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="D83" s="43"/>
     </row>
     <row r="84" s="22" customFormat="1" spans="1:3">
       <c r="A84" s="23" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>242</v>
+        <v>322</v>
       </c>
       <c r="C84" s="45" t="s">
-        <v>243</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85" s="22" customFormat="1" spans="1:3">
       <c r="A85" s="46"/>
       <c r="B85" s="22" t="s">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="C85" s="45" t="s">
-        <v>245</v>
+        <v>325</v>
       </c>
     </row>
     <row r="86" s="22" customFormat="1" spans="1:3">
       <c r="A86" s="46"/>
       <c r="B86" s="22" t="s">
-        <v>246</v>
+        <v>326</v>
       </c>
       <c r="C86" s="45" t="s">
-        <v>247</v>
+        <v>327</v>
       </c>
     </row>
     <row r="87" s="22" customFormat="1" spans="1:3">
       <c r="A87" s="46"/>
       <c r="B87" s="22" t="s">
-        <v>248</v>
+        <v>328</v>
       </c>
       <c r="C87" s="45" t="s">
-        <v>249</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" s="22" customFormat="1" spans="1:3">
       <c r="A88" s="46"/>
       <c r="B88" s="22" t="s">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="C88" s="45" t="s">
-        <v>251</v>
+        <v>331</v>
       </c>
     </row>
     <row r="89" s="22" customFormat="1" spans="1:3">
       <c r="A89" s="46"/>
       <c r="B89" s="22" t="s">
-        <v>252</v>
+        <v>332</v>
       </c>
       <c r="C89" s="45" t="s">
-        <v>253</v>
+        <v>333</v>
       </c>
     </row>
     <row r="90" s="22" customFormat="1" spans="1:3">
       <c r="A90" s="46"/>
       <c r="B90" s="22" t="s">
-        <v>254</v>
+        <v>334</v>
       </c>
       <c r="C90" s="45" t="s">
-        <v>255</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" s="22" customFormat="1" spans="1:4">
       <c r="A91" s="47"/>
       <c r="B91" s="43" t="s">
-        <v>256</v>
+        <v>336</v>
       </c>
       <c r="C91" s="44" t="s">
-        <v>257</v>
+        <v>337</v>
       </c>
       <c r="D91" s="43"/>
     </row>
     <row r="92" s="22" customFormat="1" spans="1:3">
       <c r="A92" s="23" t="s">
-        <v>258</v>
+        <v>338</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>259</v>
+        <v>339</v>
       </c>
       <c r="C92" s="45" t="s">
-        <v>260</v>
+        <v>340</v>
       </c>
     </row>
     <row r="93" s="22" customFormat="1" spans="1:3">
       <c r="A93" s="46"/>
       <c r="B93" s="22" t="s">
-        <v>261</v>
+        <v>341</v>
       </c>
       <c r="C93" s="45" t="s">
-        <v>245</v>
+        <v>325</v>
       </c>
     </row>
     <row r="94" s="22" customFormat="1" spans="1:3">
       <c r="A94" s="46"/>
       <c r="B94" s="22" t="s">
-        <v>262</v>
+        <v>342</v>
       </c>
       <c r="C94" s="45" t="s">
-        <v>247</v>
+        <v>327</v>
       </c>
     </row>
     <row r="95" s="22" customFormat="1" spans="1:3">
       <c r="A95" s="46"/>
       <c r="B95" s="22" t="s">
-        <v>263</v>
+        <v>343</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>249</v>
+        <v>329</v>
       </c>
     </row>
     <row r="96" s="22" customFormat="1" spans="1:3">
       <c r="A96" s="46"/>
       <c r="B96" s="22" t="s">
-        <v>264</v>
+        <v>344</v>
       </c>
       <c r="C96" s="45" t="s">
-        <v>251</v>
+        <v>331</v>
       </c>
     </row>
     <row r="97" s="22" customFormat="1" spans="1:3">
       <c r="A97" s="46"/>
       <c r="B97" s="22" t="s">
-        <v>265</v>
+        <v>345</v>
       </c>
       <c r="C97" s="45" t="s">
-        <v>253</v>
+        <v>333</v>
       </c>
     </row>
     <row r="98" s="22" customFormat="1" spans="1:3">
       <c r="A98" s="46"/>
       <c r="B98" s="22" t="s">
-        <v>266</v>
+        <v>346</v>
       </c>
       <c r="C98" s="45" t="s">
-        <v>255</v>
+        <v>335</v>
       </c>
     </row>
     <row r="99" s="22" customFormat="1" spans="1:3">
       <c r="A99" s="46"/>
       <c r="B99" s="22" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="C99" s="44" t="s">
-        <v>257</v>
+        <v>337</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="48" t="s">
-        <v>268</v>
+        <v>348</v>
       </c>
       <c r="B100" s="49" t="s">
-        <v>269</v>
+        <v>349</v>
       </c>
       <c r="C100" s="49" t="s">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="D100" s="49"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="24"/>
       <c r="B101" t="s">
-        <v>271</v>
+        <v>351</v>
       </c>
       <c r="C101" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="24"/>
       <c r="B102" t="s">
-        <v>273</v>
+        <v>353</v>
       </c>
       <c r="C102" t="s">
-        <v>274</v>
+        <v>354</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="24"/>
       <c r="B103" t="s">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="C103" t="s">
-        <v>276</v>
+        <v>356</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="24"/>
       <c r="B104" t="s">
-        <v>277</v>
+        <v>357</v>
       </c>
       <c r="C104" t="s">
-        <v>278</v>
+        <v>358</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="24"/>
       <c r="B105" t="s">
-        <v>279</v>
+        <v>359</v>
       </c>
       <c r="C105" t="s">
-        <v>280</v>
+        <v>360</v>
       </c>
     </row>
     <row r="106" s="21" customFormat="1" spans="1:4">
       <c r="A106" s="32"/>
       <c r="B106" s="25" t="s">
-        <v>281</v>
+        <v>361</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>282</v>
+        <v>362</v>
       </c>
       <c r="D106" s="25"/>
     </row>
     <row r="107" s="21" customFormat="1" spans="1:5">
       <c r="A107" s="23" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="B107" t="s">
-        <v>283</v>
+        <v>363</v>
       </c>
       <c r="C107" t="s">
-        <v>284</v>
+        <v>364</v>
       </c>
       <c r="D107" s="50" t="s">
-        <v>285</v>
+        <v>365</v>
       </c>
       <c r="E107" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
     </row>
     <row r="108" s="21" customFormat="1" spans="1:5">
       <c r="A108" s="24"/>
       <c r="B108" t="s">
-        <v>287</v>
+        <v>367</v>
       </c>
       <c r="C108" t="s">
-        <v>288</v>
+        <v>368</v>
       </c>
       <c r="D108" s="50"/>
       <c r="E108" t="s">
-        <v>289</v>
+        <v>369</v>
       </c>
     </row>
     <row r="109" s="21" customFormat="1" spans="1:5">
       <c r="A109" s="24"/>
       <c r="B109" t="s">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="C109" t="s">
-        <v>291</v>
+        <v>371</v>
       </c>
       <c r="D109" s="50"/>
       <c r="E109" t="s">
-        <v>292</v>
+        <v>372</v>
       </c>
     </row>
     <row r="110" s="21" customFormat="1" ht="54" spans="1:5">
       <c r="A110" s="24"/>
       <c r="B110" s="10" t="s">
-        <v>293</v>
+        <v>373</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>294</v>
+        <v>374</v>
       </c>
       <c r="D110" s="50"/>
       <c r="E110"/>
     </row>
     <row r="111" s="21" customFormat="1" ht="135" spans="1:5">
       <c r="A111" s="51" t="s">
-        <v>295</v>
+        <v>375</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>296</v>
+        <v>376</v>
       </c>
       <c r="C111" t="s">
-        <v>297</v>
+        <v>377</v>
       </c>
       <c r="D111" s="50"/>
       <c r="E111"/>
     </row>
     <row r="112" s="21" customFormat="1" spans="1:5">
       <c r="A112" s="24" t="s">
-        <v>298</v>
+        <v>378</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>299</v>
+        <v>379</v>
       </c>
       <c r="C112" t="s">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="D112" s="50"/>
       <c r="E112"/>
     </row>
     <row r="113" s="21" customFormat="1" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>301</v>
+        <v>381</v>
       </c>
       <c r="B113" s="52"/>
       <c r="C113" s="1" t="s">
-        <v>302</v>
+        <v>382</v>
       </c>
       <c r="D113" s="52"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="24" t="s">
-        <v>303</v>
+        <v>383</v>
       </c>
       <c r="B114" t="s">
-        <v>304</v>
+        <v>384</v>
       </c>
       <c r="C114" t="s">
-        <v>305</v>
+        <v>385</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="24"/>
       <c r="B115" s="25" t="s">
-        <v>306</v>
+        <v>386</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>307</v>
+        <v>387</v>
       </c>
       <c r="D115" s="25"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="24"/>
       <c r="B116" t="s">
-        <v>308</v>
+        <v>388</v>
       </c>
       <c r="C116" t="s">
-        <v>309</v>
+        <v>389</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="24"/>
       <c r="B117" s="25" t="s">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>311</v>
+        <v>391</v>
       </c>
       <c r="D117" s="25"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="24"/>
       <c r="B118" t="s">
-        <v>312</v>
+        <v>392</v>
       </c>
       <c r="C118" t="s">
-        <v>313</v>
+        <v>393</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="24"/>
       <c r="B119" t="s">
-        <v>314</v>
+        <v>394</v>
       </c>
       <c r="C119" t="s">
-        <v>315</v>
+        <v>395</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="24"/>
       <c r="B120" s="25" t="s">
-        <v>316</v>
+        <v>396</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>317</v>
+        <v>397</v>
       </c>
       <c r="D120" s="25"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="24"/>
       <c r="B121" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="C121" t="s">
-        <v>319</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="24"/>
       <c r="B122" t="s">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="C122" t="s">
-        <v>321</v>
+        <v>401</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="24"/>
       <c r="B123" s="25" t="s">
-        <v>322</v>
+        <v>402</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>323</v>
+        <v>403</v>
       </c>
       <c r="D123" s="25"/>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="24"/>
       <c r="B124" t="s">
-        <v>324</v>
+        <v>404</v>
       </c>
       <c r="C124" t="s">
-        <v>325</v>
+        <v>405</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="24"/>
       <c r="B125" t="s">
-        <v>326</v>
+        <v>406</v>
       </c>
       <c r="C125" t="s">
-        <v>327</v>
+        <v>407</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="24"/>
       <c r="B126" s="25" t="s">
-        <v>328</v>
+        <v>408</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>329</v>
+        <v>409</v>
       </c>
       <c r="D126" s="25"/>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="24"/>
       <c r="B127" t="s">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="C127" t="s">
-        <v>331</v>
+        <v>411</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="24"/>
       <c r="B128" t="s">
-        <v>332</v>
+        <v>412</v>
       </c>
       <c r="C128" t="s">
-        <v>333</v>
+        <v>413</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="24"/>
       <c r="B129" s="25" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>335</v>
+        <v>415</v>
       </c>
       <c r="D129" s="25"/>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="24"/>
       <c r="B130" t="s">
-        <v>336</v>
+        <v>416</v>
       </c>
       <c r="C130" t="s">
-        <v>337</v>
+        <v>417</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="24"/>
       <c r="B131" s="25" t="s">
-        <v>338</v>
+        <v>418</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>339</v>
+        <v>419</v>
       </c>
       <c r="D131" s="25"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="24"/>
       <c r="B132" t="s">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="C132" t="s">
-        <v>341</v>
+        <v>421</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="24"/>
       <c r="B133" s="25" t="s">
-        <v>342</v>
+        <v>422</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
       <c r="D133" s="25"/>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="24"/>
       <c r="B134" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="C134" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="24"/>
       <c r="B135" s="25" t="s">
-        <v>346</v>
+        <v>426</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>347</v>
+        <v>427</v>
       </c>
       <c r="D135" s="25"/>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="24"/>
       <c r="B136" t="s">
-        <v>348</v>
+        <v>428</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>349</v>
+        <v>429</v>
       </c>
     </row>
     <row r="137" s="21" customFormat="1" spans="1:4">
       <c r="A137" s="24"/>
       <c r="B137" s="25" t="s">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>351</v>
+        <v>431</v>
       </c>
       <c r="D137" s="25"/>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="24"/>
       <c r="B138" t="s">
-        <v>352</v>
+        <v>432</v>
       </c>
       <c r="C138" t="s">
-        <v>353</v>
+        <v>433</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="24"/>
       <c r="B139" t="s">
-        <v>279</v>
+        <v>359</v>
       </c>
       <c r="C139" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="24"/>
       <c r="B140" s="25" t="s">
-        <v>281</v>
+        <v>361</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>355</v>
+        <v>435</v>
       </c>
       <c r="D140" s="25"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="24"/>
       <c r="B141" t="s">
-        <v>356</v>
+        <v>436</v>
       </c>
       <c r="C141" t="s">
-        <v>357</v>
+        <v>437</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="24"/>
       <c r="B142" s="25" t="s">
-        <v>358</v>
+        <v>438</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>359</v>
+        <v>439</v>
       </c>
       <c r="D142" s="25"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="24"/>
       <c r="B143" t="s">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="C143" t="s">
-        <v>361</v>
+        <v>441</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="24"/>
       <c r="B144" t="s">
-        <v>362</v>
+        <v>442</v>
       </c>
       <c r="C144" t="s">
-        <v>363</v>
+        <v>443</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="24"/>
       <c r="B145" t="s">
-        <v>364</v>
+        <v>444</v>
       </c>
       <c r="C145" t="s">
-        <v>365</v>
+        <v>445</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="24"/>
       <c r="B146" t="s">
-        <v>366</v>
+        <v>446</v>
       </c>
       <c r="C146" t="s">
-        <v>367</v>
+        <v>447</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="24"/>
       <c r="B147" s="25" t="s">
-        <v>368</v>
+        <v>448</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>369</v>
+        <v>449</v>
       </c>
       <c r="D147" s="25"/>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="24"/>
       <c r="B148" t="s">
-        <v>370</v>
+        <v>450</v>
       </c>
       <c r="C148" t="s">
-        <v>371</v>
+        <v>451</v>
       </c>
       <c r="D148" s="53" t="s">
-        <v>372</v>
+        <v>452</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="24"/>
       <c r="B149" t="s">
-        <v>373</v>
+        <v>453</v>
       </c>
       <c r="C149" t="s">
-        <v>374</v>
+        <v>454</v>
       </c>
       <c r="D149" s="53" t="s">
-        <v>375</v>
+        <v>455</v>
       </c>
     </row>
     <row r="150" s="21" customFormat="1" spans="1:4">
       <c r="A150" s="32"/>
       <c r="B150" s="25" t="s">
-        <v>376</v>
+        <v>456</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>377</v>
+        <v>457</v>
       </c>
       <c r="D150" s="25"/>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="24" t="s">
-        <v>378</v>
+        <v>458</v>
       </c>
       <c r="B151" t="s">
-        <v>379</v>
+        <v>459</v>
       </c>
       <c r="C151" t="s">
-        <v>380</v>
+        <v>460</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="24"/>
       <c r="B152" t="s">
-        <v>381</v>
+        <v>461</v>
       </c>
       <c r="C152" t="s">
-        <v>382</v>
+        <v>462</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="24"/>
       <c r="B153" t="s">
-        <v>383</v>
+        <v>463</v>
       </c>
       <c r="C153" t="s">
-        <v>384</v>
+        <v>464</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="24"/>
       <c r="B154" s="25" t="s">
-        <v>385</v>
+        <v>465</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>386</v>
+        <v>466</v>
       </c>
       <c r="D154" s="25"/>
     </row>
     <row r="155" s="21" customFormat="1" spans="1:4">
       <c r="A155" s="32"/>
       <c r="B155" s="25" t="s">
-        <v>387</v>
+        <v>467</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>388</v>
+        <v>468</v>
       </c>
       <c r="D155" s="25"/>
     </row>
@@ -6406,36 +7548,36 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
       <c r="A1" s="18" t="s">
-        <v>389</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" ht="49.5" spans="1:2">
       <c r="A2" s="19" t="s">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>391</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" ht="37.5" spans="1:2">
       <c r="A3" s="19" t="s">
-        <v>392</v>
+        <v>472</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>393</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="1:1">
       <c r="A5" s="18" t="s">
-        <v>394</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:16384">
       <c r="A6" s="19" t="s">
-        <v>395</v>
+        <v>475</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>396</v>
+        <v>476</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="11"/>
@@ -22822,68 +23964,68 @@
     </row>
     <row r="7" ht="73.5" spans="1:2">
       <c r="A7" s="19" t="s">
-        <v>397</v>
+        <v>477</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>398</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" ht="18.75" spans="1:1">
       <c r="A9" s="18" t="s">
-        <v>399</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" ht="220.5" spans="1:2">
       <c r="A10" s="19" t="s">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>401</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" ht="25.5" spans="1:2">
       <c r="A11" s="19" t="s">
-        <v>402</v>
+        <v>482</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>403</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:2">
       <c r="A12" s="19" t="s">
-        <v>404</v>
+        <v>484</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>405</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" ht="18.75" spans="1:1">
       <c r="A14" s="18" t="s">
-        <v>406</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" ht="99" spans="1:2">
       <c r="A15" s="19" t="s">
-        <v>407</v>
+        <v>487</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>408</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" ht="135" spans="1:2">
       <c r="A16" s="19" t="s">
-        <v>409</v>
+        <v>489</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>410</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" ht="163.5" spans="1:2">
       <c r="A17" s="19" t="s">
-        <v>411</v>
+        <v>491</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>412</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -22899,8 +24041,8 @@
   <sheetPr/>
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -22912,30 +24054,30 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>413</v>
+        <v>493</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>414</v>
+        <v>494</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>415</v>
+        <v>495</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>416</v>
+        <v>496</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>417</v>
+        <v>497</v>
       </c>
       <c r="B3" t="s">
-        <v>418</v>
+        <v>498</v>
       </c>
       <c r="C3" s="3">
         <v>4</v>
@@ -22943,10 +24085,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>499</v>
       </c>
       <c r="B4" t="s">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="C4" s="3">
         <v>816</v>
@@ -22954,264 +24096,264 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>501</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>422</v>
+        <v>502</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>423</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>504</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>425</v>
+        <v>505</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>426</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>427</v>
+        <v>507</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>428</v>
+        <v>508</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>429</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>430</v>
+        <v>510</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>431</v>
+        <v>511</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>429</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>432</v>
+        <v>512</v>
       </c>
       <c r="B9" t="s">
-        <v>433</v>
+        <v>513</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>434</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>435</v>
+        <v>515</v>
       </c>
       <c r="B10" t="s">
-        <v>436</v>
+        <v>516</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>437</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="51" spans="1:4">
       <c r="A11" s="10" t="s">
-        <v>438</v>
+        <v>518</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>439</v>
+        <v>519</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:4">
       <c r="A12" s="7" t="s">
-        <v>441</v>
+        <v>521</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>442</v>
+        <v>522</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>443</v>
+        <v>523</v>
       </c>
       <c r="B13" t="s">
-        <v>444</v>
+        <v>524</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>445</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>427</v>
+        <v>507</v>
       </c>
       <c r="B14" t="s">
-        <v>446</v>
+        <v>526</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>445</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>430</v>
+        <v>510</v>
       </c>
       <c r="B15" t="s">
-        <v>447</v>
+        <v>527</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>445</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:4">
       <c r="A16" s="7" t="s">
-        <v>448</v>
+        <v>528</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>449</v>
+        <v>529</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>450</v>
+        <v>530</v>
       </c>
       <c r="B17" t="s">
-        <v>451</v>
+        <v>531</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>452</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>453</v>
+        <v>533</v>
       </c>
       <c r="B18" t="s">
-        <v>454</v>
+        <v>534</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>455</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>456</v>
+        <v>536</v>
       </c>
       <c r="B19" t="s">
-        <v>457</v>
+        <v>537</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>458</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>459</v>
+        <v>539</v>
       </c>
       <c r="B20" t="s">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>426</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>461</v>
+        <v>541</v>
       </c>
       <c r="B21" t="s">
-        <v>462</v>
+        <v>542</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>463</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:4">
       <c r="A22" s="7" t="s">
-        <v>464</v>
+        <v>544</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>465</v>
+        <v>545</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>466</v>
+        <v>546</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>467</v>
+        <v>547</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>434</v>
+        <v>514</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>468</v>
+        <v>548</v>
       </c>
       <c r="B24" t="s">
-        <v>469</v>
+        <v>549</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>470</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>471</v>
+        <v>551</v>
       </c>
       <c r="B25" t="s">
-        <v>472</v>
+        <v>552</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>473</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>474</v>
+        <v>554</v>
       </c>
       <c r="B26" t="s">
-        <v>475</v>
+        <v>555</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>473</v>
+        <v>553</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="18.75" spans="1:4">
       <c r="A27" s="13" t="s">
-        <v>476</v>
+        <v>556</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:4">
       <c r="A28" s="7" t="s">
-        <v>477</v>
+        <v>557</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" customFormat="1" spans="1:4">
       <c r="A29" s="14" t="s">
-        <v>479</v>
+        <v>559</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="3"/>
@@ -23219,395 +24361,395 @@
     </row>
     <row r="30" s="2" customFormat="1" spans="1:4">
       <c r="A30" s="7" t="s">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>481</v>
+        <v>561</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="14" t="s">
-        <v>479</v>
+        <v>559</v>
       </c>
       <c r="B31" s="14"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="18.75" spans="1:4">
       <c r="A32" s="13" t="s">
-        <v>482</v>
+        <v>562</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:4">
       <c r="A33" s="15" t="s">
-        <v>483</v>
+        <v>563</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
     </row>
     <row r="34" ht="27" spans="1:2">
       <c r="A34" t="s">
-        <v>484</v>
+        <v>564</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>485</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:2">
       <c r="A35" t="s">
-        <v>486</v>
+        <v>566</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>487</v>
+        <v>567</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>488</v>
+        <v>568</v>
       </c>
       <c r="B36" t="s">
-        <v>489</v>
+        <v>569</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>490</v>
+        <v>570</v>
       </c>
       <c r="B37" t="s">
-        <v>491</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="18.75" spans="1:4">
       <c r="A38" s="13" t="s">
-        <v>492</v>
+        <v>572</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
     <row r="39" ht="27" spans="1:2">
       <c r="A39" t="s">
-        <v>484</v>
+        <v>564</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>485</v>
+        <v>565</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:2">
       <c r="A40" t="s">
-        <v>486</v>
+        <v>566</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>487</v>
+        <v>567</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>493</v>
+        <v>573</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>494</v>
+        <v>574</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>495</v>
+        <v>575</v>
       </c>
       <c r="B42" t="s">
-        <v>496</v>
+        <v>576</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="18.75" spans="1:4">
       <c r="A43" s="13" t="s">
-        <v>497</v>
+        <v>577</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
     </row>
     <row r="44" ht="27" spans="1:2">
       <c r="A44" t="s">
-        <v>498</v>
+        <v>578</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>499</v>
+        <v>579</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>501</v>
+        <v>581</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>502</v>
+        <v>582</v>
       </c>
       <c r="B46" t="s">
-        <v>503</v>
+        <v>583</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="18.75" spans="1:4">
       <c r="A47" s="13" t="s">
-        <v>504</v>
+        <v>584</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:4">
       <c r="A48" s="7" t="s">
-        <v>505</v>
+        <v>585</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>506</v>
+        <v>586</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
     </row>
     <row r="49" customFormat="1" spans="1:4">
       <c r="A49" t="s">
-        <v>507</v>
+        <v>587</v>
       </c>
       <c r="B49" t="s">
-        <v>508</v>
+        <v>588</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
     <row r="50" customFormat="1" spans="1:4">
       <c r="A50" t="s">
-        <v>509</v>
+        <v>589</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>510</v>
+        <v>590</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
     <row r="51" s="2" customFormat="1" spans="1:4">
       <c r="A51" s="7" t="s">
-        <v>511</v>
+        <v>591</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>512</v>
+        <v>592</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" customFormat="1" spans="1:4">
       <c r="A52" t="s">
-        <v>513</v>
+        <v>593</v>
       </c>
       <c r="B52" t="s">
-        <v>514</v>
+        <v>594</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
     <row r="53" customFormat="1" spans="1:4">
       <c r="A53" t="s">
-        <v>515</v>
+        <v>595</v>
       </c>
       <c r="B53" t="s">
-        <v>516</v>
+        <v>596</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
     </row>
     <row r="54" customFormat="1" spans="1:4">
       <c r="A54" t="s">
-        <v>517</v>
+        <v>597</v>
       </c>
       <c r="B54" t="s">
-        <v>518</v>
+        <v>598</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
     <row r="55" s="2" customFormat="1" spans="1:4">
       <c r="A55" s="7" t="s">
-        <v>519</v>
+        <v>599</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
     </row>
     <row r="56" customFormat="1" spans="1:4">
       <c r="A56" t="s">
-        <v>521</v>
+        <v>601</v>
       </c>
       <c r="B56" t="s">
-        <v>522</v>
+        <v>602</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
     <row r="57" customFormat="1" spans="1:4">
       <c r="A57" t="s">
-        <v>523</v>
+        <v>603</v>
       </c>
       <c r="B57" t="s">
-        <v>524</v>
+        <v>604</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
     </row>
     <row r="58" s="2" customFormat="1" spans="1:4">
       <c r="A58" s="7" t="s">
-        <v>525</v>
+        <v>605</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>526</v>
+        <v>606</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="18.75" spans="1:4">
       <c r="A59" s="13" t="s">
-        <v>527</v>
+        <v>607</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>513</v>
+        <v>593</v>
       </c>
       <c r="B60" t="s">
-        <v>528</v>
+        <v>608</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>434</v>
+        <v>514</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>515</v>
+        <v>595</v>
       </c>
       <c r="B61" t="s">
-        <v>529</v>
+        <v>609</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>434</v>
+        <v>514</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>517</v>
+        <v>597</v>
       </c>
       <c r="B62" t="s">
-        <v>530</v>
+        <v>610</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>531</v>
+        <v>611</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>532</v>
+        <v>612</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>533</v>
+        <v>613</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>534</v>
+        <v>614</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>535</v>
+        <v>615</v>
       </c>
       <c r="B64" t="s">
-        <v>536</v>
+        <v>616</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>537</v>
+        <v>617</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" ht="18.75" spans="1:4">
       <c r="A65" s="13" t="s">
-        <v>538</v>
+        <v>618</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
     </row>
     <row r="66" s="2" customFormat="1" spans="1:4">
       <c r="A66" s="7" t="s">
-        <v>539</v>
+        <v>619</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>540</v>
+        <v>620</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>541</v>
+        <v>621</v>
       </c>
       <c r="B67" t="s">
-        <v>542</v>
+        <v>622</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>434</v>
+        <v>514</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>543</v>
+        <v>623</v>
       </c>
       <c r="B68" t="s">
-        <v>542</v>
+        <v>622</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>544</v>
+        <v>624</v>
       </c>
     </row>
     <row r="69" s="2" customFormat="1" spans="1:4">
       <c r="A69" s="7" t="s">
-        <v>545</v>
+        <v>625</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>546</v>
+        <v>626</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
     </row>
     <row r="70" ht="27" spans="1:3">
       <c r="A70" t="s">
-        <v>547</v>
+        <v>627</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>548</v>
+        <v>628</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>434</v>
+        <v>514</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>549</v>
+        <v>629</v>
       </c>
       <c r="B71" t="s">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>544</v>
+        <v>624</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>551</v>
+        <v>631</v>
       </c>
       <c r="B72" t="s">
-        <v>552</v>
+        <v>632</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>445</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>

--- a/4-Message Core 消息核心.xlsx
+++ b/4-Message Core 消息核心.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="介绍" sheetId="4" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="682">
   <si>
     <t>http://www.yanfly.moe/wiki/Message_Core_VisuStella_MZ</t>
   </si>
@@ -418,6 +418,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">4、项目的 </t>
     </r>
     <r>
@@ -482,6 +489,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">如果要在翻译的短语中插入换行符，请使用 </t>
     </r>
     <r>
@@ -527,6 +541,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">如果确实要使用分号，请使用文本代码 </t>
     </r>
     <r>
@@ -553,6 +574,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Example:</t>
     </r>
     <r>
@@ -590,6 +619,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">分号文本代码的其他变体是 </t>
     </r>
     <r>
@@ -715,33 +751,16 @@
     <t>你可以将这些语言“文本代码”插入到物品名称、技能名称等以及系统条目中，如攻击、防御等。</t>
   </si>
   <si>
-    <t>RPG Maker MZ 自带</t>
-  </si>
-  <si>
-    <t>无法修改</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">效果
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（全局）</t>
-    </r>
+    <t>RPG Maker MZ Text Codes    RPG Maker MZ 文本代码</t>
+  </si>
+  <si>
+    <t>默认 MZ 文本代码</t>
+  </si>
+  <si>
+    <t>文本代码</t>
+  </si>
+  <si>
+    <t>效果（全局）</t>
   </si>
   <si>
     <t>\V[n]</t>
@@ -941,27 +960,10 @@
     <t>将\作为文本输入</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">效果
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（仅消息窗口）</t>
-    </r>
+    <t>默认MZ 仅限Message 文本代码</t>
+  </si>
+  <si>
+    <t>效果（仅限 Message窗口）</t>
   </si>
   <si>
     <t>\$</t>
@@ -1025,7 +1027,10 @@
     <t>显示文本后不再等待输入</t>
   </si>
   <si>
-    <t>VisuStella MZ Message Core 自带</t>
+    <t>Message Core Hard-Coded Text Codes    消息核心 硬编码 文本代码</t>
+  </si>
+  <si>
+    <t>全局 硬编码 文本代码</t>
   </si>
   <si>
     <t>&lt;b&gt;</t>
@@ -1040,7 +1045,7 @@
     <t>取消加粗</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;i&gt; </t>
+    <t>&lt;i&gt;</t>
   </si>
   <si>
     <t>斜体</t>
@@ -1061,7 +1066,7 @@
     <t>在一行的开始处使用。不适用于自动换行。</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;/left&gt; </t>
+    <t>&lt;/left&gt;</t>
   </si>
   <si>
     <t>取消左对齐</t>
@@ -1070,7 +1075,7 @@
     <t>&lt;center&gt;</t>
   </si>
   <si>
-    <t>、</t>
+    <t>居中对齐</t>
   </si>
   <si>
     <t>&lt;/center&gt;</t>
@@ -1182,6 +1187,325 @@
     <t>绘制以窗口为中心的图片x（文件名）</t>
   </si>
   <si>
+    <t>效果（地图名）</t>
+  </si>
+  <si>
+    <t>使地图名称与屏幕左侧对齐。</t>
+  </si>
+  <si>
+    <t>使地图名称与屏幕的水平中心对齐。</t>
+  </si>
+  <si>
+    <t>使地图名称与屏幕右侧对齐。</t>
+  </si>
+  <si>
+    <t>&lt;top&gt;</t>
+  </si>
+  <si>
+    <t>使地图名称与屏幕顶部对齐。</t>
+  </si>
+  <si>
+    <t>&lt;middle&gt;</t>
+  </si>
+  <si>
+    <t>使地图名称与屏幕垂直中心对齐。</t>
+  </si>
+  <si>
+    <t>&lt;bottom&gt;</t>
+  </si>
+  <si>
+    <t>使地图名称与屏幕底部对齐。</t>
+  </si>
+  <si>
+    <t>&lt;X: +n&gt;</t>
+  </si>
+  <si>
+    <t>通过n调整地图名称的水平位置。</t>
+  </si>
+  <si>
+    <t>&lt;X: -n&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Y: +n&gt;</t>
+  </si>
+  <si>
+    <t>通过n调整地图名称的垂直位置。</t>
+  </si>
+  <si>
+    <t>&lt;Y: -n&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Caps&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">将此之后的所有文本大写。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关闭其他自动文本大小写模式。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>例："hello world" 变为 "HELLO WORLD"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">明确：如果你想知道，文本代码&lt;/Caps&gt;、&lt;/Upper&gt;、&lt;/Lower&gt;、&lt;/Alt&gt;和&lt;/Chaso&gt;都做同样的事情，可以互换使用。
+例如，你可以这样做：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Caps&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hello world</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/Lower&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，
+它仍然会达到同样的效果，但你不会这样做，因为你不是一个怪物般的开发人员。</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;/Caps&gt;</t>
+  </si>
+  <si>
+    <t>关闭自动文本大小写效果。</t>
+  </si>
+  <si>
+    <t>&lt;Upper&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">将空格后任何单词的第一个字母大写。其他字母保持不变。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭其他自动文本大小写模式。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 例："old mcDonald" 变为 "Old McDonald"</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;/Upper&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Lower&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">使此文本之后的所有文本都小写。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">关闭其他自动文本大小写模式。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>例："THE QUICK BROWN FOX" 变为 "the quick brown fox"</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;/Lower&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Alt&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">使此后的所有文本在大写和小写之间交替。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关闭其他自动文本大小写模式。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+例："Hello" 变为 "HeLlO"</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;/Alt&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Chaos&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">使此后的所有文本在大写和小写之间随机化。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关闭其他自动文本大小写模式。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+例："Wassup" 变为 "waSsUP" 或 "WasSuP"</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;/Chaos&gt;</t>
+  </si>
+  <si>
+    <t>仅限 Message窗口 硬编码 文本代码</t>
+  </si>
+  <si>
     <t>\CommonEvent[x]</t>
   </si>
   <si>
@@ -1314,27 +1638,10 @@
     <t>仅限于战斗。调整消息窗口的大小并将其放置在敌人精灵的头上</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">效果
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（仅战斗）</t>
-    </r>
+    <t>仅限 战斗 硬编码 文本代码</t>
+  </si>
+  <si>
+    <t>效果（仅限 战斗）</t>
   </si>
   <si>
     <t>&lt;Current Battle Target&gt;</t>
@@ -1416,27 +1723,10 @@
     <t>战斗中，当前动作名称（没有图标）</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">效果
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（仅选项窗口）</t>
-    </r>
+    <t>仅限 选项窗口 硬编码 文本代码</t>
+  </si>
+  <si>
+    <t>效果（仅限 选项窗口）</t>
   </si>
   <si>
     <t>&lt;Show&gt;</t>
@@ -1547,7 +1837,7 @@
     <t>x任何一个为ON，则禁用</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;Choice Width: x&gt; </t>
+    <t>&lt;Choice Width: x&gt;</t>
   </si>
   <si>
     <r>
@@ -1572,7 +1862,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">&lt;Choice Indent: x&gt; </t>
+    <t>&lt;Choice Indent: x&gt;</t>
   </si>
   <si>
     <r>
@@ -1621,7 +1911,7 @@
     <t>选项背景颜色：rgb颜色渐变</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;Help&gt; text &lt;/Help&gt;            </t>
+    <t>&lt;Help&gt; text &lt;/Help&gt;</t>
   </si>
   <si>
     <t>使显示一个帮主窗口，并让它在其内容中显示“text”。
@@ -1643,27 +1933,7 @@
 隐藏的选项不计入x数。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">背景效果
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（仅选项窗口）</t>
-    </r>
+    <t>背景 效果（仅限 选项窗口）</t>
   </si>
   <si>
     <t>&lt;BgImg: filename&gt;</t>
@@ -1714,27 +1984,7 @@
     <t>右上</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">前景效果
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（仅选项窗口）</t>
-    </r>
+    <t>前景 效果（仅限 选项窗口）</t>
   </si>
   <si>
     <t>&lt;FgImg: filename&gt;</t>
@@ -1764,27 +2014,10 @@
     <t>&lt;FgImg UpperRight: filename&gt;</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">效果
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（仅名称窗口）</t>
-    </r>
+    <t>仅限 Name 窗口 硬编码 文本代码</t>
+  </si>
+  <si>
+    <t>效果（仅限 Name 窗口）</t>
   </si>
   <si>
     <t>&lt;Left&gt;</t>
@@ -1811,7 +2044,7 @@
     <t>x：0-10之间的数字。决定名称窗口位置。</t>
   </si>
   <si>
-    <t xml:space="preserve">\NormalBG </t>
+    <t>\NormalBG</t>
   </si>
   <si>
     <t>窗口背景：普通</t>
@@ -1827,6 +2060,12 @@
   </si>
   <si>
     <t>窗口背景：透明</t>
+  </si>
+  <si>
+    <t>仅限 Message 位置 硬编码 文本代码</t>
+  </si>
+  <si>
+    <t>效果（仅限 消息窗口）</t>
   </si>
   <si>
     <t>&lt;Position: x, y, width, height&gt;</t>
@@ -1869,8 +2108,10 @@
 这些值将替换以前的偏移设置（如果有）。</t>
   </si>
   <si>
-    <t>需要
-VisuMZ_0_CoreEngine</t>
+    <t>控制相关 硬编码 文本代码</t>
+  </si>
+  <si>
+    <t>效果（需要 VisuMZ_0_CoreEngine）</t>
   </si>
   <si>
     <t>&lt;Up Button&gt;
@@ -1897,15 +2138,15 @@
     <t>在若干个文本之间随机取一个显示。</t>
   </si>
   <si>
-    <t>VisuStella MZ Message Core 自定义</t>
+    <t>Message Core Customizable Text Codes    消息核心 可自定义 文本代码</t>
+  </si>
+  <si>
+    <t>默认 可自定义 文本代码</t>
   </si>
   <si>
     <t>可在插件参数更改</t>
   </si>
   <si>
-    <t>全局</t>
-  </si>
-  <si>
     <t>\Class[x]</t>
   </si>
   <si>
@@ -1918,7 +2159,7 @@
     <t>职业名称</t>
   </si>
   <si>
-    <t xml:space="preserve">\Skill[x] </t>
+    <t>\Skill[x]</t>
   </si>
   <si>
     <t>技能图标和名称</t>
@@ -2088,9 +2329,6 @@
     </r>
   </si>
   <si>
-    <t>\NormalBG</t>
-  </si>
-  <si>
     <t>窗口背景改为：普通</t>
   </si>
   <si>
@@ -2164,6 +2402,9 @@
   </si>
   <si>
     <t>将窗口位置重置为原始位置</t>
+  </si>
+  <si>
+    <t>默认 消息效果 文本代码</t>
   </si>
   <si>
     <t>仅消息窗口</t>
@@ -3325,6 +3566,9 @@
     <t>是否为此插件启用语言切换设置？</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>CSV Filename:</t>
   </si>
   <si>
@@ -3350,6 +3594,9 @@
     </r>
   </si>
   <si>
+    <t>Languages.csv</t>
+  </si>
+  <si>
     <t>Options:</t>
   </si>
   <si>
@@ -3374,6 +3621,9 @@
     <t>选项的命令名</t>
   </si>
   <si>
+    <t>Text Language</t>
+  </si>
+  <si>
     <t>Languages:</t>
   </si>
   <si>
@@ -3396,6 +3646,18 @@
   </si>
   <si>
     <t>语言名称（见备注）</t>
+  </si>
+  <si>
+    <t>Language Fonts</t>
+  </si>
+  <si>
+    <t>语言字体（略）</t>
+  </si>
+  <si>
+    <t>Language Images</t>
+  </si>
+  <si>
+    <t>语言图像（略）</t>
   </si>
   <si>
     <t>Text Speed Option Settings  文本速度 选项设置</t>
@@ -3466,9 +3728,6 @@
   </si>
   <si>
     <t>Help Window:</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
   <si>
     <t>Rules</t>
@@ -3555,6 +3814,29 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3775,28 +4057,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="5"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF00B050"/>
       <name val="宋体"/>
@@ -3804,8 +4064,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3816,7 +4077,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3843,13 +4104,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="0" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4178,137 +4451,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4369,7 +4642,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -4378,11 +4657,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -4390,34 +4675,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4428,9 +4722,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -4447,23 +4738,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -4471,37 +4762,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4786,14 +5074,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>390525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3067050</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>1571625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4810,7 +5098,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8162925" y="20050125"/>
+          <a:off x="7448550" y="29486225"/>
           <a:ext cx="3067050" cy="2209800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4828,13 +5116,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2114550</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4852,8 +5140,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8267700" y="12344400"/>
+          <a:off x="7553325" y="20237450"/>
           <a:ext cx="2009775" cy="1685925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="MessageCore-AutoCasing.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7496175" y="10379075"/>
+          <a:ext cx="5715000" cy="1676400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5259,15 +5589,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="64" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5616,7 +5946,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" s="54" customFormat="1" ht="18.75" spans="1:1">
+    <row r="53" s="1" customFormat="1" ht="18.75" spans="1:1">
       <c r="A53" s="5" t="s">
         <v>86</v>
       </c>
@@ -5625,7 +5955,7 @@
       <c r="A54" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="57"/>
+      <c r="B54" s="15"/>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
@@ -5646,7 +5976,7 @@
       <c r="A59" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B59" s="57"/>
+      <c r="B59" s="15"/>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
@@ -5662,7 +5992,7 @@
       <c r="A63" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B63" s="57"/>
+      <c r="B63" s="15"/>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
@@ -5674,7 +6004,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" s="54" customFormat="1" ht="18.75" spans="1:1">
+    <row r="68" s="1" customFormat="1" ht="18.75" spans="1:1">
       <c r="A68" s="5" t="s">
         <v>97</v>
       </c>
@@ -5698,10 +6028,10 @@
       <c r="A76" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B76" s="57"/>
+      <c r="B76" s="15"/>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="58" t="s">
+      <c r="B77" s="65" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5736,7 +6066,7 @@
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="58" t="s">
+      <c r="B84" s="65" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5764,10 +6094,10 @@
       <c r="A91" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B91" s="57"/>
+      <c r="B91" s="15"/>
     </row>
     <row r="92" ht="27" spans="2:2">
-      <c r="B92" s="59" t="s">
+      <c r="B92" s="10" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5782,7 +6112,7 @@
       </c>
     </row>
     <row r="102" ht="27" spans="2:2">
-      <c r="B102" s="59" t="s">
+      <c r="B102" s="10" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5790,7 +6120,7 @@
       <c r="A104" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B104" s="57"/>
+      <c r="B104" s="15"/>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
@@ -5798,7 +6128,7 @@
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="60" t="s">
+      <c r="A106" s="66" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5808,17 +6138,17 @@
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="60" t="s">
+      <c r="A109" s="66" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="110" ht="40.5" spans="2:2">
-      <c r="B110" s="59" t="s">
+      <c r="B110" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="60" t="s">
+      <c r="A112" s="66" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5843,17 +6173,17 @@
       </c>
     </row>
     <row r="117" ht="27" spans="2:2">
-      <c r="B117" s="61" t="s">
+      <c r="B117" s="67" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="118" ht="27" spans="2:2">
-      <c r="B118" s="62" t="s">
+      <c r="B118" s="11" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="60" t="s">
+      <c r="A120" s="66" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5866,7 +6196,7 @@
       <c r="A123" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B123" s="57"/>
+      <c r="B123" s="15"/>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
@@ -5889,27 +6219,27 @@
       </c>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="63" t="s">
+      <c r="B128" s="68" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="129" spans="2:2">
-      <c r="B129" s="63" t="s">
+      <c r="B129" s="68" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="63" t="s">
+      <c r="B130" s="68" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="63" t="s">
+      <c r="B131" s="68" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="63" t="s">
+      <c r="B132" s="68" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5919,7 +6249,7 @@
       </c>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="63" t="s">
+      <c r="B134" s="68" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5929,7 +6259,7 @@
       </c>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="63" t="s">
+      <c r="B136" s="68" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5939,7 +6269,7 @@
       </c>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="64" t="s">
+      <c r="B138" s="69" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5962,1567 +6292,2037 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E155"/>
+  <dimension ref="A1:E208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="39.375" customWidth="1"/>
     <col min="3" max="3" width="54.375" customWidth="1"/>
     <col min="4" max="4" width="58.25" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="21"/>
+    <col min="5" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="20" customFormat="1" ht="20.25" spans="1:4">
+      <c r="A1" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" s="21" customFormat="1" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="23" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" s="22" customFormat="1" spans="1:4">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11"/>
+      <c r="B4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="24"/>
-      <c r="B3" t="s">
+      <c r="C4" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="9" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11"/>
+      <c r="B5" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="24"/>
-      <c r="B4" t="s">
+      <c r="C5" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="9" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="11"/>
+      <c r="B6" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="24"/>
-      <c r="B5" t="s">
+      <c r="C6" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="9" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="11"/>
+      <c r="B7" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25" t="s">
+      <c r="C7" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="26" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="11"/>
+      <c r="B8" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="25"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28" t="s">
+      <c r="C8" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="27"/>
-      <c r="B8" s="30" t="s">
+      <c r="C9" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="31" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="31"/>
+      <c r="B10" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25" t="s">
+      <c r="C10" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="D10" s="29"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="11"/>
+      <c r="B11" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="24"/>
-      <c r="B10" t="s">
+      <c r="C11" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D11" s="29"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="11"/>
+      <c r="B12" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="24"/>
-      <c r="B11" t="s">
+      <c r="C12" t="s">
         <v>172</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="11"/>
+      <c r="B13" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="27"/>
-      <c r="B12" s="30" t="s">
+      <c r="C13" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="30" t="s">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="31"/>
+      <c r="B14" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" s="21" customFormat="1" spans="1:4">
-      <c r="A13" s="32"/>
-      <c r="B13" s="25" t="s">
+      <c r="C14" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="D14" s="29"/>
+    </row>
+    <row r="15" s="23" customFormat="1" spans="1:4">
+      <c r="A15" s="36"/>
+      <c r="B15" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="25"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="23" t="s">
+      <c r="C15" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D15" s="29"/>
+    </row>
+    <row r="16" s="21" customFormat="1" spans="1:4">
+      <c r="A16" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" s="22" customFormat="1" spans="1:4">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="28" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="33"/>
-      <c r="B15" t="s">
+      <c r="D17" s="27"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="11"/>
+      <c r="B18" t="s">
         <v>181</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C18" s="9" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="33"/>
-      <c r="B16" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="11"/>
+      <c r="B19" t="s">
         <v>183</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C19" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="33"/>
-      <c r="B17" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="11"/>
+      <c r="B20" t="s">
         <v>185</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C20" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="33"/>
-      <c r="B18" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="11"/>
+      <c r="B21" t="s">
         <v>187</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C21" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="33"/>
-      <c r="B19" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="11"/>
+      <c r="B22" t="s">
         <v>189</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="33"/>
-      <c r="B20" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="11"/>
+      <c r="B23" t="s">
         <v>191</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C23" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="21" s="20" customFormat="1" spans="1:4">
-      <c r="A21" s="1" t="s">
+    <row r="24" ht="14" customHeight="1" spans="1:3">
+      <c r="A24" s="11"/>
+      <c r="B24" t="s">
         <v>193</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="23" t="s">
+      <c r="C24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" s="20" customFormat="1" ht="20.25" spans="1:4">
+      <c r="A25" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+    </row>
+    <row r="26" s="21" customFormat="1" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" s="22" customFormat="1" spans="1:4">
+      <c r="A27" s="27"/>
+      <c r="B27" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="B22" t="s">
-        <v>194</v>
-      </c>
-      <c r="C22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="24"/>
-      <c r="B23" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="C27" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="27"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="11"/>
+      <c r="B28" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="24"/>
-      <c r="B24" t="s">
+      <c r="C28" t="s">
         <v>198</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="11"/>
+      <c r="B29" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25" t="s">
+      <c r="C29" t="s">
         <v>200</v>
       </c>
-      <c r="C25" s="25" t="s">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="11"/>
+      <c r="B30" t="s">
         <v>201</v>
       </c>
-      <c r="D25" s="25"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="24"/>
-      <c r="B26" t="s">
+      <c r="C30" t="s">
         <v>202</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="11"/>
+      <c r="B31" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C31" s="29" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="24"/>
-      <c r="B27" t="s">
+      <c r="D31" s="29"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="11"/>
+      <c r="B32" t="s">
         <v>205</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C32" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="24"/>
-      <c r="B28" t="s">
+      <c r="D32" t="s">
         <v>207</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="11"/>
+      <c r="B33" t="s">
         <v>208</v>
       </c>
-      <c r="D28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="24"/>
-      <c r="B29" t="s">
+      <c r="C33" t="s">
         <v>209</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="11"/>
+      <c r="B34" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="24"/>
-      <c r="B30" t="s">
+      <c r="C34" t="s">
         <v>211</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="11"/>
+      <c r="B35" t="s">
         <v>212</v>
       </c>
-      <c r="D30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" s="21" customFormat="1" spans="1:4">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25" t="s">
+      <c r="C35" t="s">
         <v>213</v>
       </c>
-      <c r="C31" s="25" t="s">
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="11"/>
+      <c r="B36" t="s">
         <v>214</v>
       </c>
-      <c r="D31" s="25"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="24"/>
-      <c r="B32" t="s">
+      <c r="C36" t="s">
         <v>215</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" s="23" customFormat="1" spans="1:4">
+      <c r="A37" s="11"/>
+      <c r="B37" s="29" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25" t="s">
+      <c r="C37" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="D37" s="29"/>
+    </row>
+    <row r="38" s="22" customFormat="1" spans="1:4">
+      <c r="A38" s="27"/>
+      <c r="B38" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="27"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="11"/>
+      <c r="B39" t="s">
         <v>218</v>
       </c>
-      <c r="D33" s="25"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="24"/>
-      <c r="B34" t="s">
+      <c r="C39" t="s">
         <v>219</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="11"/>
+      <c r="B40" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="D34" t="s">
+      <c r="C40" s="29" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="24"/>
-      <c r="B35" t="s">
+      <c r="D40" s="29"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="11"/>
+      <c r="B41" t="s">
         <v>222</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C41" t="s">
         <v>223</v>
       </c>
-      <c r="D35" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="24"/>
-      <c r="B36" t="s">
+      <c r="D41" t="s">
         <v>224</v>
       </c>
-      <c r="C36" s="9" t="s">
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="11"/>
+      <c r="B42" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="37" s="21" customFormat="1" spans="1:4">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25" t="s">
+      <c r="C42" t="s">
         <v>226</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="D42" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="11"/>
+      <c r="B43" t="s">
         <v>227</v>
       </c>
-      <c r="D37" s="25"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="24"/>
-      <c r="B38" t="s">
+      <c r="C43" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="44" s="23" customFormat="1" spans="1:4">
+      <c r="A44" s="11"/>
+      <c r="B44" s="29" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="39" s="21" customFormat="1" spans="1:4">
-      <c r="A39" s="32"/>
-      <c r="B39" s="25" t="s">
+      <c r="C44" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="D44" s="29"/>
+    </row>
+    <row r="45" s="22" customFormat="1" spans="1:4">
+      <c r="A45" s="27"/>
+      <c r="B45" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="27"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="11"/>
+      <c r="B46" t="s">
         <v>231</v>
       </c>
-      <c r="D39" s="25"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C46" t="s">
         <v>232</v>
       </c>
-      <c r="C40" s="9" t="s">
+    </row>
+    <row r="47" s="23" customFormat="1" spans="1:4">
+      <c r="A47" s="11"/>
+      <c r="B47" s="29" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="41" s="21" customFormat="1" spans="1:4">
-      <c r="A41" s="32"/>
-      <c r="B41" s="25" t="s">
+      <c r="C47" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="D47" s="29"/>
+    </row>
+    <row r="48" s="22" customFormat="1" spans="1:4">
+      <c r="A48" s="27"/>
+      <c r="B48" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="D41" s="25"/>
-    </row>
-    <row r="42" s="22" customFormat="1" ht="36" spans="1:4">
-      <c r="A42" s="24"/>
-      <c r="B42" s="25" t="s">
+      <c r="D48" s="27"/>
+    </row>
+    <row r="49" s="24" customFormat="1" spans="1:4">
+      <c r="A49" s="11"/>
+      <c r="B49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" t="s">
         <v>236</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="D49"/>
+    </row>
+    <row r="50" s="24" customFormat="1" spans="1:4">
+      <c r="A50" s="11"/>
+      <c r="B50" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50" t="s">
         <v>237</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D50"/>
+    </row>
+    <row r="51" s="24" customFormat="1" spans="1:4">
+      <c r="A51" s="11"/>
+      <c r="B51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="24"/>
-      <c r="B43" t="s">
+      <c r="D51"/>
+    </row>
+    <row r="52" s="24" customFormat="1" spans="1:4">
+      <c r="A52" s="11"/>
+      <c r="B52" t="s">
         <v>239</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C52" t="s">
         <v>240</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D52"/>
+    </row>
+    <row r="53" s="24" customFormat="1" spans="1:4">
+      <c r="A53" s="11"/>
+      <c r="B53" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="24"/>
-      <c r="B44" t="s">
+      <c r="C53" t="s">
         <v>242</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D53"/>
+    </row>
+    <row r="54" s="24" customFormat="1" spans="1:4">
+      <c r="A54" s="11"/>
+      <c r="B54" t="s">
         <v>243</v>
       </c>
-      <c r="D44" s="35"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="24"/>
-      <c r="B45" t="s">
+      <c r="C54" t="s">
         <v>244</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D54"/>
+    </row>
+    <row r="55" s="24" customFormat="1" spans="1:4">
+      <c r="A55" s="11"/>
+      <c r="B55" t="s">
         <v>245</v>
       </c>
-      <c r="D45" s="35"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="24"/>
-      <c r="B46" t="s">
+      <c r="C55" t="s">
         <v>246</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D55"/>
+    </row>
+    <row r="56" s="24" customFormat="1" spans="1:4">
+      <c r="A56" s="11"/>
+      <c r="B56" t="s">
         <v>247</v>
       </c>
-      <c r="D46" s="35"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="24"/>
-      <c r="B47" t="s">
+      <c r="C56" t="s">
+        <v>246</v>
+      </c>
+      <c r="D56"/>
+    </row>
+    <row r="57" s="24" customFormat="1" spans="1:4">
+      <c r="A57" s="11"/>
+      <c r="B57" t="s">
         <v>248</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C57" t="s">
         <v>249</v>
       </c>
-      <c r="D47" s="35"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="24"/>
-      <c r="B48" t="s">
+      <c r="D57"/>
+    </row>
+    <row r="58" s="24" customFormat="1" spans="1:4">
+      <c r="A58" s="11"/>
+      <c r="B58" t="s">
         <v>250</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C58" t="s">
+        <v>249</v>
+      </c>
+      <c r="D58"/>
+    </row>
+    <row r="59" s="22" customFormat="1" spans="1:4">
+      <c r="A59" s="27"/>
+      <c r="B59" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" s="27"/>
+    </row>
+    <row r="60" customFormat="1" ht="39" spans="1:4">
+      <c r="A60" s="11"/>
+      <c r="B60" t="s">
         <v>251</v>
       </c>
-      <c r="D48" s="35"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="24"/>
-      <c r="B49" t="s">
+      <c r="C60" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="D60" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="D49" s="35"/>
-    </row>
-    <row r="50" s="21" customFormat="1" spans="1:4">
-      <c r="A50" s="32"/>
-      <c r="B50" s="25" t="s">
+    </row>
+    <row r="61" customFormat="1" spans="1:4">
+      <c r="A61" s="11"/>
+      <c r="B61" t="s">
         <v>254</v>
       </c>
-      <c r="C50" s="37" t="s">
+      <c r="C61" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="D50" s="38"/>
-    </row>
-    <row r="51" s="22" customFormat="1" spans="1:4">
-      <c r="A51" s="23" t="s">
+      <c r="D61" s="39"/>
+    </row>
+    <row r="62" customFormat="1" ht="37.5" spans="1:4">
+      <c r="A62" s="11"/>
+      <c r="B62" t="s">
         <v>256</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C62" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="D62" s="39"/>
+    </row>
+    <row r="63" customFormat="1" spans="1:4">
+      <c r="A63" s="11"/>
+      <c r="B63" t="s">
         <v>258</v>
       </c>
-      <c r="D51" s="39" t="s">
+      <c r="C63" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D63" s="39"/>
+    </row>
+    <row r="64" customFormat="1" ht="37.5" spans="1:4">
+      <c r="A64" s="11"/>
+      <c r="B64" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="52" s="22" customFormat="1" spans="1:4">
-      <c r="A52" s="24"/>
-      <c r="B52" t="s">
+      <c r="C64" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="D64" s="39"/>
+    </row>
+    <row r="65" customFormat="1" spans="1:4">
+      <c r="A65" s="11"/>
+      <c r="B65" t="s">
         <v>261</v>
       </c>
-      <c r="D52" s="35"/>
-    </row>
-    <row r="53" s="22" customFormat="1" spans="1:4">
-      <c r="A53" s="24"/>
-      <c r="B53" t="s">
+      <c r="C65" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D65" s="39"/>
+    </row>
+    <row r="66" customFormat="1" ht="37.5" spans="1:4">
+      <c r="A66" s="11"/>
+      <c r="B66" t="s">
         <v>262</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C66" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="D53" s="35"/>
-    </row>
-    <row r="54" s="22" customFormat="1" spans="1:4">
-      <c r="A54" s="32"/>
-      <c r="B54" s="25" t="s">
+      <c r="D66" s="39"/>
+    </row>
+    <row r="67" customFormat="1" spans="1:4">
+      <c r="A67" s="11"/>
+      <c r="B67" t="s">
         <v>264</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C67" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D67" s="39"/>
+    </row>
+    <row r="68" customFormat="1" ht="37.5" spans="1:4">
+      <c r="A68" s="11"/>
+      <c r="B68" t="s">
         <v>265</v>
       </c>
-      <c r="D54" s="38"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="23" t="s">
+      <c r="C68" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D68" s="39"/>
+    </row>
+    <row r="69" customFormat="1" spans="1:4">
+      <c r="A69" s="36"/>
+      <c r="B69" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C69" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="D69" s="40"/>
+    </row>
+    <row r="70" s="21" customFormat="1" spans="1:4">
+      <c r="A70" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="24"/>
-      <c r="B56" t="s">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" s="22" customFormat="1" spans="1:4">
+      <c r="A71" s="27"/>
+      <c r="B71" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D71" s="27"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="11"/>
+      <c r="B72" t="s">
         <v>269</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C72" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="24"/>
-      <c r="B57" t="s">
+    <row r="73" s="23" customFormat="1" spans="1:4">
+      <c r="A73" s="36"/>
+      <c r="B73" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C73" s="29" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="24"/>
-      <c r="B58" t="s">
+      <c r="D73" s="29"/>
+    </row>
+    <row r="74" s="24" customFormat="1" ht="36" spans="1:4">
+      <c r="A74" s="11"/>
+      <c r="B74" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="C58" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="59" s="21" customFormat="1" spans="1:4">
-      <c r="A59" s="24"/>
-      <c r="B59" s="25" t="s">
+      <c r="C74" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="D74" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="D59" s="25"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="24"/>
-      <c r="B60" t="s">
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="11"/>
+      <c r="B75" t="s">
         <v>276</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C75" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="24"/>
-      <c r="B61" t="s">
+      <c r="D75" s="42" t="s">
         <v>278</v>
       </c>
-      <c r="C61" t="s">
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="11"/>
+      <c r="B76" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="24"/>
-      <c r="B62" t="s">
+      <c r="C76" t="s">
         <v>280</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D76" s="42"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="11"/>
+      <c r="B77" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="24"/>
-      <c r="B63" t="s">
+      <c r="C77" t="s">
         <v>282</v>
       </c>
-      <c r="C63" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="64" s="21" customFormat="1" spans="1:4">
-      <c r="A64" s="24"/>
-      <c r="B64" s="25" t="s">
+      <c r="D77" s="42"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="11"/>
+      <c r="B78" t="s">
         <v>283</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C78" t="s">
         <v>284</v>
       </c>
-      <c r="D64" s="25"/>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="24"/>
-      <c r="B65" t="s">
+      <c r="D78" s="42"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="11"/>
+      <c r="B79" t="s">
         <v>285</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C79" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="24"/>
-      <c r="B66" t="s">
+      <c r="D79" s="42"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="11"/>
+      <c r="B80" t="s">
         <v>287</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C80" s="43" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="24"/>
-      <c r="B67" t="s">
+      <c r="D80" s="42"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="11"/>
+      <c r="B81" t="s">
         <v>289</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C81" s="43" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="24"/>
-      <c r="B68" t="s">
+      <c r="D81" s="42"/>
+    </row>
+    <row r="82" s="23" customFormat="1" spans="1:4">
+      <c r="A82" s="36"/>
+      <c r="B82" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="C68" t="s">
-        <v>290</v>
-      </c>
-      <c r="E68"/>
-    </row>
-    <row r="69" s="21" customFormat="1" spans="1:4">
-      <c r="A69" s="24"/>
-      <c r="B69" s="25" t="s">
+      <c r="C82" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="D82" s="45"/>
+    </row>
+    <row r="83" s="21" customFormat="1" spans="1:4">
+      <c r="A83" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D69" s="25"/>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="24"/>
-      <c r="B70" t="s">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" s="22" customFormat="1" spans="1:4">
+      <c r="A84" s="27"/>
+      <c r="B84" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D84" s="27"/>
+    </row>
+    <row r="85" s="24" customFormat="1" spans="1:4">
+      <c r="A85" s="11"/>
+      <c r="B85" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="24"/>
-      <c r="B71" t="s">
+      <c r="C85" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D85" s="46" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="24"/>
-      <c r="B72" t="s">
+    <row r="86" s="24" customFormat="1" spans="1:4">
+      <c r="A86" s="11"/>
+      <c r="B86" t="s">
         <v>298</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C86" s="10" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="24"/>
-      <c r="B73" t="s">
+      <c r="D86" s="42"/>
+    </row>
+    <row r="87" s="24" customFormat="1" spans="1:4">
+      <c r="A87" s="11"/>
+      <c r="B87" t="s">
         <v>300</v>
       </c>
-      <c r="C73" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" spans="1:4">
-      <c r="A74" s="24"/>
-      <c r="B74" s="25" t="s">
+      <c r="C87" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="D87" s="42"/>
+    </row>
+    <row r="88" s="24" customFormat="1" spans="1:4">
+      <c r="A88" s="36"/>
+      <c r="B88" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="D74" s="25"/>
-    </row>
-    <row r="75" customFormat="1" spans="1:4">
-      <c r="A75" s="24"/>
-      <c r="B75" s="25" t="s">
+      <c r="C88" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="C75" s="40" t="s">
+      <c r="D88" s="45"/>
+    </row>
+    <row r="89" s="21" customFormat="1" spans="1:4">
+      <c r="A89" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D75" s="25"/>
-    </row>
-    <row r="76" customFormat="1" spans="1:4">
-      <c r="A76" s="24"/>
-      <c r="B76" s="25" t="s">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" s="22" customFormat="1" spans="1:4">
+      <c r="A90" s="27"/>
+      <c r="B90" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C90" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="C76" s="26" t="s">
+      <c r="D90" s="27"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="11"/>
+      <c r="B91" t="s">
         <v>306</v>
       </c>
-      <c r="D76" s="25"/>
-    </row>
-    <row r="77" customFormat="1" spans="1:3">
-      <c r="A77" s="24"/>
-      <c r="B77" s="41" t="s">
+      <c r="C91" t="s">
         <v>307</v>
       </c>
-      <c r="C77" s="42" t="s">
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="11"/>
+      <c r="B92" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="78" customFormat="1" spans="1:4">
-      <c r="A78" s="24"/>
-      <c r="B78" s="41" t="s">
+      <c r="C92" t="s">
         <v>309</v>
       </c>
-      <c r="C78" s="42" t="s">
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="11"/>
+      <c r="B93" t="s">
         <v>310</v>
       </c>
-      <c r="D78" s="42"/>
-    </row>
-    <row r="79" customFormat="1" spans="1:4">
-      <c r="A79" s="24"/>
-      <c r="B79" s="41" t="s">
+      <c r="C93" t="s">
         <v>311</v>
       </c>
-      <c r="C79" s="42" t="s">
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="11"/>
+      <c r="B94" t="s">
         <v>312</v>
       </c>
-      <c r="D79" s="42"/>
-    </row>
-    <row r="80" s="22" customFormat="1" spans="1:4">
-      <c r="A80" s="24"/>
-      <c r="B80" s="43" t="s">
+      <c r="C94" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="95" s="23" customFormat="1" spans="1:4">
+      <c r="A95" s="11"/>
+      <c r="B95" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="C80" s="43" t="s">
+      <c r="C95" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="D80" s="43"/>
-    </row>
-    <row r="81" s="21" customFormat="1" ht="27" spans="1:4">
-      <c r="A81" s="32"/>
-      <c r="B81" s="43" t="s">
+      <c r="D95" s="29"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="11"/>
+      <c r="B96" t="s">
         <v>315</v>
       </c>
-      <c r="C81" s="44" t="s">
+      <c r="C96" t="s">
         <v>316</v>
       </c>
-      <c r="D81" s="43"/>
-    </row>
-    <row r="82" s="21" customFormat="1" ht="27" spans="1:4">
-      <c r="A82" s="32"/>
-      <c r="B82" s="43" t="s">
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="11"/>
+      <c r="B97" t="s">
         <v>317</v>
       </c>
-      <c r="C82" s="44" t="s">
+      <c r="C97" t="s">
         <v>318</v>
       </c>
-      <c r="D82" s="43"/>
-    </row>
-    <row r="83" s="21" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A83" s="32"/>
-      <c r="B83" s="43" t="s">
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="11"/>
+      <c r="B98" t="s">
         <v>319</v>
       </c>
-      <c r="C83" s="44" t="s">
+      <c r="C98" t="s">
         <v>320</v>
       </c>
-      <c r="D83" s="43"/>
-    </row>
-    <row r="84" s="22" customFormat="1" spans="1:3">
-      <c r="A84" s="23" t="s">
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="11"/>
+      <c r="B99" t="s">
         <v>321</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="C99" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="100" s="23" customFormat="1" spans="1:4">
+      <c r="A100" s="11"/>
+      <c r="B100" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="C84" s="45" t="s">
+      <c r="C100" s="29" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="85" s="22" customFormat="1" spans="1:3">
-      <c r="A85" s="46"/>
-      <c r="B85" s="22" t="s">
+      <c r="D100" s="29"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="11"/>
+      <c r="B101" t="s">
         <v>324</v>
       </c>
-      <c r="C85" s="45" t="s">
+      <c r="C101" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="86" s="22" customFormat="1" spans="1:3">
-      <c r="A86" s="46"/>
-      <c r="B86" s="22" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" s="11"/>
+      <c r="B102" t="s">
         <v>326</v>
       </c>
-      <c r="C86" s="45" t="s">
+      <c r="C102" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="87" s="22" customFormat="1" spans="1:3">
-      <c r="A87" s="46"/>
-      <c r="B87" s="22" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" s="11"/>
+      <c r="B103" t="s">
         <v>328</v>
       </c>
-      <c r="C87" s="45" t="s">
+      <c r="C103" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="88" s="22" customFormat="1" spans="1:3">
-      <c r="A88" s="46"/>
-      <c r="B88" s="22" t="s">
+    <row r="104" spans="1:5">
+      <c r="A104" s="11"/>
+      <c r="B104" t="s">
         <v>330</v>
       </c>
-      <c r="C88" s="45" t="s">
+      <c r="C104" t="s">
+        <v>329</v>
+      </c>
+      <c r="E104"/>
+    </row>
+    <row r="105" s="23" customFormat="1" spans="1:4">
+      <c r="A105" s="11"/>
+      <c r="B105" s="29" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="89" s="22" customFormat="1" spans="1:3">
-      <c r="A89" s="46"/>
-      <c r="B89" s="22" t="s">
+      <c r="C105" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C89" s="45" t="s">
+      <c r="D105" s="29"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="11"/>
+      <c r="B106" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="90" s="22" customFormat="1" spans="1:3">
-      <c r="A90" s="46"/>
-      <c r="B90" s="22" t="s">
+      <c r="C106" t="s">
         <v>334</v>
       </c>
-      <c r="C90" s="45" t="s">
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="11"/>
+      <c r="B107" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="91" s="22" customFormat="1" spans="1:4">
-      <c r="A91" s="47"/>
-      <c r="B91" s="43" t="s">
+      <c r="C107" t="s">
         <v>336</v>
       </c>
-      <c r="C91" s="44" t="s">
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="11"/>
+      <c r="B108" t="s">
         <v>337</v>
       </c>
-      <c r="D91" s="43"/>
-    </row>
-    <row r="92" s="22" customFormat="1" spans="1:3">
-      <c r="A92" s="23" t="s">
+      <c r="C108" t="s">
         <v>338</v>
       </c>
-      <c r="B92" s="22" t="s">
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="11"/>
+      <c r="B109" t="s">
         <v>339</v>
       </c>
-      <c r="C92" s="45" t="s">
+      <c r="C109" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="110" customFormat="1" spans="1:4">
+      <c r="A110" s="11"/>
+      <c r="B110" s="29" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="93" s="22" customFormat="1" spans="1:3">
-      <c r="A93" s="46"/>
-      <c r="B93" s="22" t="s">
+      <c r="C110" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="C93" s="45" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="94" s="22" customFormat="1" spans="1:3">
-      <c r="A94" s="46"/>
-      <c r="B94" s="22" t="s">
+      <c r="D110" s="29"/>
+    </row>
+    <row r="111" customFormat="1" spans="1:4">
+      <c r="A111" s="11"/>
+      <c r="B111" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="C94" s="45" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="95" s="22" customFormat="1" spans="1:3">
-      <c r="A95" s="46"/>
-      <c r="B95" s="22" t="s">
+      <c r="C111" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="C95" s="45" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="96" s="22" customFormat="1" spans="1:3">
-      <c r="A96" s="46"/>
-      <c r="B96" s="22" t="s">
+      <c r="D111" s="29"/>
+    </row>
+    <row r="112" customFormat="1" spans="1:4">
+      <c r="A112" s="11"/>
+      <c r="B112" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="C96" s="45" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="97" s="22" customFormat="1" spans="1:3">
-      <c r="A97" s="46"/>
-      <c r="B97" s="22" t="s">
+      <c r="C112" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="C97" s="45" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="98" s="22" customFormat="1" spans="1:3">
-      <c r="A98" s="46"/>
-      <c r="B98" s="22" t="s">
+      <c r="D112" s="29"/>
+    </row>
+    <row r="113" s="22" customFormat="1" spans="1:4">
+      <c r="A113" s="27"/>
+      <c r="B113" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C113" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="D113" s="27"/>
+    </row>
+    <row r="114" customFormat="1" spans="1:3">
+      <c r="A114" s="11"/>
+      <c r="B114" s="47" t="s">
         <v>346</v>
       </c>
-      <c r="C98" s="45" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="99" s="22" customFormat="1" spans="1:3">
-      <c r="A99" s="46"/>
-      <c r="B99" s="22" t="s">
+      <c r="C114" s="48" t="s">
         <v>347</v>
       </c>
-      <c r="C99" s="44" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="48" t="s">
+    </row>
+    <row r="115" customFormat="1" spans="1:4">
+      <c r="A115" s="11"/>
+      <c r="B115" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="B100" s="49" t="s">
+      <c r="C115" s="48" t="s">
         <v>349</v>
       </c>
-      <c r="C100" s="49" t="s">
+      <c r="D115" s="48"/>
+    </row>
+    <row r="116" customFormat="1" spans="1:4">
+      <c r="A116" s="11"/>
+      <c r="B116" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="D100" s="49"/>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="24"/>
-      <c r="B101" t="s">
+      <c r="C116" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D116" s="48"/>
+    </row>
+    <row r="117" s="24" customFormat="1" spans="1:4">
+      <c r="A117" s="11"/>
+      <c r="B117" s="49" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="24"/>
-      <c r="B102" t="s">
+      <c r="C117" s="49" t="s">
         <v>353</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D117" s="49"/>
+    </row>
+    <row r="118" s="22" customFormat="1" spans="1:4">
+      <c r="A118" s="27"/>
+      <c r="B118" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C118" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="D118" s="27"/>
+    </row>
+    <row r="119" s="23" customFormat="1" ht="27" spans="1:4">
+      <c r="A119" s="36"/>
+      <c r="B119" s="49" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="24"/>
-      <c r="B103" t="s">
+      <c r="C119" s="50" t="s">
         <v>355</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D119" s="49"/>
+    </row>
+    <row r="120" s="22" customFormat="1" spans="1:4">
+      <c r="A120" s="27"/>
+      <c r="B120" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C120" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="D120" s="27"/>
+    </row>
+    <row r="121" s="23" customFormat="1" ht="27" spans="1:4">
+      <c r="A121" s="36"/>
+      <c r="B121" s="49" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="24"/>
-      <c r="B104" t="s">
+      <c r="C121" s="50" t="s">
         <v>357</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D121" s="49"/>
+    </row>
+    <row r="122" s="23" customFormat="1" ht="40.5" spans="1:4">
+      <c r="A122" s="36"/>
+      <c r="B122" s="49" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="24"/>
-      <c r="B105" t="s">
+      <c r="C122" s="50" t="s">
         <v>359</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D122" s="49"/>
+    </row>
+    <row r="123" s="22" customFormat="1" spans="1:4">
+      <c r="A123" s="27"/>
+      <c r="B123" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C123" s="28" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="106" s="21" customFormat="1" spans="1:4">
-      <c r="A106" s="32"/>
-      <c r="B106" s="25" t="s">
+      <c r="D123" s="27"/>
+    </row>
+    <row r="124" s="24" customFormat="1" spans="1:3">
+      <c r="A124" s="11"/>
+      <c r="B124" s="24" t="s">
         <v>361</v>
       </c>
-      <c r="C106" s="25" t="s">
+      <c r="C124" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="D106" s="25"/>
-    </row>
-    <row r="107" s="21" customFormat="1" spans="1:5">
-      <c r="A107" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="B107" t="s">
+    </row>
+    <row r="125" s="24" customFormat="1" spans="1:3">
+      <c r="A125" s="11"/>
+      <c r="B125" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C125" s="51" t="s">
         <v>364</v>
       </c>
-      <c r="D107" s="50" t="s">
+    </row>
+    <row r="126" s="24" customFormat="1" spans="1:3">
+      <c r="A126" s="11"/>
+      <c r="B126" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="E107" t="s">
+      <c r="C126" s="51" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="108" s="21" customFormat="1" spans="1:5">
-      <c r="A108" s="24"/>
-      <c r="B108" t="s">
+    <row r="127" s="24" customFormat="1" spans="1:3">
+      <c r="A127" s="11"/>
+      <c r="B127" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C127" s="51" t="s">
         <v>368</v>
       </c>
-      <c r="D108" s="50"/>
-      <c r="E108" t="s">
+    </row>
+    <row r="128" s="24" customFormat="1" spans="1:3">
+      <c r="A128" s="11"/>
+      <c r="B128" s="24" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="109" s="21" customFormat="1" spans="1:5">
-      <c r="A109" s="24"/>
-      <c r="B109" t="s">
+      <c r="C128" s="51" t="s">
         <v>370</v>
       </c>
-      <c r="C109" t="s">
+    </row>
+    <row r="129" s="24" customFormat="1" spans="1:3">
+      <c r="A129" s="11"/>
+      <c r="B129" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="D109" s="50"/>
-      <c r="E109" t="s">
+      <c r="C129" s="51" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="110" s="21" customFormat="1" ht="54" spans="1:5">
-      <c r="A110" s="24"/>
-      <c r="B110" s="10" t="s">
+    <row r="130" s="24" customFormat="1" spans="1:3">
+      <c r="A130" s="11"/>
+      <c r="B130" s="24" t="s">
         <v>373</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C130" s="51" t="s">
         <v>374</v>
       </c>
-      <c r="D110" s="50"/>
-      <c r="E110"/>
-    </row>
-    <row r="111" s="21" customFormat="1" ht="135" spans="1:5">
-      <c r="A111" s="51" t="s">
+    </row>
+    <row r="131" s="24" customFormat="1" spans="1:4">
+      <c r="A131" s="36"/>
+      <c r="B131" s="49" t="s">
         <v>375</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="C131" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D131" s="49"/>
+    </row>
+    <row r="132" s="22" customFormat="1" spans="1:4">
+      <c r="A132" s="27"/>
+      <c r="B132" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C132" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="D111" s="50"/>
-      <c r="E111"/>
-    </row>
-    <row r="112" s="21" customFormat="1" spans="1:5">
-      <c r="A112" s="24" t="s">
+      <c r="D132" s="27"/>
+    </row>
+    <row r="133" s="24" customFormat="1" spans="1:3">
+      <c r="A133" s="11"/>
+      <c r="B133" s="24" t="s">
         <v>378</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="C133" s="51" t="s">
         <v>379</v>
       </c>
-      <c r="C112" t="s">
+    </row>
+    <row r="134" s="24" customFormat="1" spans="1:3">
+      <c r="A134" s="11"/>
+      <c r="B134" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="D112" s="50"/>
-      <c r="E112"/>
-    </row>
-    <row r="113" s="21" customFormat="1" spans="1:4">
-      <c r="A113" s="1" t="s">
+      <c r="C134" s="51" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="135" s="24" customFormat="1" spans="1:3">
+      <c r="A135" s="11"/>
+      <c r="B135" s="24" t="s">
         <v>381</v>
       </c>
-      <c r="B113" s="52"/>
-      <c r="C113" s="1" t="s">
+      <c r="C135" s="51" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="136" s="24" customFormat="1" spans="1:3">
+      <c r="A136" s="11"/>
+      <c r="B136" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="D113" s="52"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="24" t="s">
+      <c r="C136" s="51" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="137" s="24" customFormat="1" spans="1:3">
+      <c r="A137" s="11"/>
+      <c r="B137" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C137" s="51" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="138" s="24" customFormat="1" spans="1:3">
+      <c r="A138" s="11"/>
+      <c r="B138" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C138" s="51" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="139" s="24" customFormat="1" spans="1:3">
+      <c r="A139" s="11"/>
+      <c r="B139" s="24" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="24"/>
-      <c r="B115" s="25" t="s">
+      <c r="C139" s="51" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="140" s="24" customFormat="1" spans="1:3">
+      <c r="A140" s="11"/>
+      <c r="B140" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="C115" s="25" t="s">
+      <c r="C140" s="50" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="141" s="21" customFormat="1" spans="1:4">
+      <c r="A141" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D115" s="25"/>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="24"/>
-      <c r="B116" t="s">
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" s="22" customFormat="1" spans="1:4">
+      <c r="A142" s="27"/>
+      <c r="B142" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D142" s="27"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="52"/>
+      <c r="B143" s="53" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="24"/>
-      <c r="B117" s="25" t="s">
+      <c r="C143" s="53" t="s">
         <v>390</v>
       </c>
-      <c r="C117" s="25" t="s">
+      <c r="D143" s="53"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="54"/>
+      <c r="B144" t="s">
         <v>391</v>
       </c>
-      <c r="D117" s="25"/>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="24"/>
-      <c r="B118" t="s">
+      <c r="C144" t="s">
         <v>392</v>
       </c>
-      <c r="C118" t="s">
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="54"/>
+      <c r="B145" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="24"/>
-      <c r="B119" t="s">
+      <c r="C145" t="s">
         <v>394</v>
       </c>
-      <c r="C119" t="s">
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="54"/>
+      <c r="B146" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="24"/>
-      <c r="B120" s="25" t="s">
+      <c r="C146" t="s">
         <v>396</v>
       </c>
-      <c r="C120" s="25" t="s">
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="54"/>
+      <c r="B147" t="s">
         <v>397</v>
       </c>
-      <c r="D120" s="25"/>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="24"/>
-      <c r="B121" t="s">
+      <c r="C147" t="s">
         <v>398</v>
       </c>
-      <c r="C121" t="s">
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="54"/>
+      <c r="B148" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="24"/>
-      <c r="B122" t="s">
+      <c r="C148" t="s">
         <v>400</v>
       </c>
-      <c r="C122" t="s">
+    </row>
+    <row r="149" s="23" customFormat="1" spans="1:4">
+      <c r="A149" s="36"/>
+      <c r="B149" s="29" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="24"/>
-      <c r="B123" s="25" t="s">
+      <c r="C149" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="C123" s="25" t="s">
+      <c r="D149" s="29"/>
+    </row>
+    <row r="150" s="21" customFormat="1" spans="1:4">
+      <c r="A150" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D123" s="25"/>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="24"/>
-      <c r="B124" t="s">
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" s="22" customFormat="1" spans="1:4">
+      <c r="A151" s="27"/>
+      <c r="B151" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C151" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D151" s="27"/>
+    </row>
+    <row r="152" s="23" customFormat="1" spans="1:5">
+      <c r="A152" s="11"/>
+      <c r="B152" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="24"/>
-      <c r="B125" t="s">
+      <c r="C152" t="s">
         <v>406</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D152" s="55" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="24"/>
-      <c r="B126" s="25" t="s">
+      <c r="E152" t="s">
         <v>408</v>
       </c>
-      <c r="C126" s="25" t="s">
+    </row>
+    <row r="153" s="23" customFormat="1" spans="1:5">
+      <c r="A153" s="11"/>
+      <c r="B153" t="s">
         <v>409</v>
       </c>
-      <c r="D126" s="25"/>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="24"/>
-      <c r="B127" t="s">
+      <c r="C153" t="s">
         <v>410</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D153" s="55"/>
+      <c r="E153" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="24"/>
-      <c r="B128" t="s">
+    <row r="154" s="23" customFormat="1" spans="1:5">
+      <c r="A154" s="11"/>
+      <c r="B154" t="s">
         <v>412</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C154" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="24"/>
-      <c r="B129" s="25" t="s">
+      <c r="D154" s="55"/>
+      <c r="E154" t="s">
         <v>414</v>
       </c>
-      <c r="C129" s="25" t="s">
+    </row>
+    <row r="155" s="23" customFormat="1" ht="54" spans="1:5">
+      <c r="A155" s="11"/>
+      <c r="B155" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="D129" s="25"/>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="24"/>
-      <c r="B130" t="s">
+      <c r="C155" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D155" s="55"/>
+      <c r="E155"/>
+    </row>
+    <row r="156" s="21" customFormat="1" spans="1:4">
+      <c r="A156" s="1" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="24"/>
-      <c r="B131" s="25" t="s">
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" s="22" customFormat="1" spans="1:4">
+      <c r="A157" s="27"/>
+      <c r="B157" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C157" s="28" t="s">
         <v>418</v>
       </c>
-      <c r="C131" s="25" t="s">
+      <c r="D157" s="27"/>
+    </row>
+    <row r="158" s="23" customFormat="1" ht="135" spans="1:5">
+      <c r="A158" s="56"/>
+      <c r="B158" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="D131" s="25"/>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="24"/>
-      <c r="B132" t="s">
+      <c r="C158" t="s">
         <v>420</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D158" s="55"/>
+      <c r="E158"/>
+    </row>
+    <row r="159" s="21" customFormat="1" spans="1:4">
+      <c r="A159" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="24"/>
-      <c r="B133" s="25" t="s">
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" s="23" customFormat="1" spans="1:5">
+      <c r="A160" s="57"/>
+      <c r="B160" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C133" s="25" t="s">
+      <c r="C160" t="s">
         <v>423</v>
       </c>
-      <c r="D133" s="25"/>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="24"/>
-      <c r="B134" t="s">
+      <c r="D160" s="55"/>
+      <c r="E160"/>
+    </row>
+    <row r="161" s="20" customFormat="1" ht="20.25" spans="1:4">
+      <c r="A161" s="25" t="s">
         <v>424</v>
       </c>
-      <c r="C134" t="s">
+      <c r="B161" s="26"/>
+      <c r="C161" s="26"/>
+      <c r="D161" s="26"/>
+    </row>
+    <row r="162" s="23" customFormat="1" spans="1:4">
+      <c r="A162" s="1" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="24"/>
-      <c r="B135" s="25" t="s">
+      <c r="B162" s="58"/>
+      <c r="C162" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C135" s="25" t="s">
+      <c r="D162" s="58"/>
+    </row>
+    <row r="163" s="22" customFormat="1" spans="1:4">
+      <c r="A163" s="27"/>
+      <c r="B163" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C163" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D163" s="27"/>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="59"/>
+      <c r="B164" t="s">
         <v>427</v>
       </c>
-      <c r="D135" s="25"/>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="24"/>
-      <c r="B136" t="s">
+      <c r="C164" t="s">
         <v>428</v>
       </c>
-      <c r="C136" s="9" t="s">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="59"/>
+      <c r="B165" s="29" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="137" s="21" customFormat="1" spans="1:4">
-      <c r="A137" s="24"/>
-      <c r="B137" s="25" t="s">
+      <c r="C165" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="C137" s="26" t="s">
+      <c r="D165" s="29"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="59"/>
+      <c r="B166" t="s">
         <v>431</v>
       </c>
-      <c r="D137" s="25"/>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="24"/>
-      <c r="B138" t="s">
+      <c r="C166" t="s">
         <v>432</v>
       </c>
-      <c r="C138" t="s">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="59"/>
+      <c r="B167" s="29" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="24"/>
-      <c r="B139" t="s">
-        <v>359</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="C167" s="29" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="24"/>
-      <c r="B140" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="C140" s="25" t="s">
+      <c r="D167" s="29"/>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="59"/>
+      <c r="B168" t="s">
         <v>435</v>
       </c>
-      <c r="D140" s="25"/>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="24"/>
-      <c r="B141" t="s">
+      <c r="C168" t="s">
         <v>436</v>
       </c>
-      <c r="C141" t="s">
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="59"/>
+      <c r="B169" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="24"/>
-      <c r="B142" s="25" t="s">
+      <c r="C169" t="s">
         <v>438</v>
       </c>
-      <c r="C142" s="25" t="s">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="59"/>
+      <c r="B170" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="D142" s="25"/>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="24"/>
-      <c r="B143" t="s">
+      <c r="C170" s="29" t="s">
         <v>440</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D170" s="29"/>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="59"/>
+      <c r="B171" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="24"/>
-      <c r="B144" t="s">
+      <c r="C171" t="s">
         <v>442</v>
       </c>
-      <c r="C144" t="s">
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="59"/>
+      <c r="B172" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="24"/>
-      <c r="B145" t="s">
+      <c r="C172" t="s">
         <v>444</v>
       </c>
-      <c r="C145" t="s">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="59"/>
+      <c r="B173" s="29" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="24"/>
-      <c r="B146" t="s">
+      <c r="C173" s="29" t="s">
         <v>446</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D173" s="29"/>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="59"/>
+      <c r="B174" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="24"/>
-      <c r="B147" s="25" t="s">
+      <c r="C174" t="s">
         <v>448</v>
       </c>
-      <c r="C147" s="25" t="s">
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="59"/>
+      <c r="B175" t="s">
         <v>449</v>
       </c>
-      <c r="D147" s="25"/>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="24"/>
-      <c r="B148" t="s">
+      <c r="C175" t="s">
         <v>450</v>
       </c>
-      <c r="C148" t="s">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="59"/>
+      <c r="B176" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="D148" s="53" t="s">
+      <c r="C176" s="29" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="24"/>
-      <c r="B149" t="s">
+      <c r="D176" s="29"/>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="59"/>
+      <c r="B177" t="s">
         <v>453</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C177" t="s">
         <v>454</v>
       </c>
-      <c r="D149" s="53" t="s">
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="59"/>
+      <c r="B178" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="150" s="21" customFormat="1" spans="1:4">
-      <c r="A150" s="32"/>
-      <c r="B150" s="25" t="s">
+      <c r="C178" t="s">
         <v>456</v>
       </c>
-      <c r="C150" s="25" t="s">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="59"/>
+      <c r="B179" s="29" t="s">
         <v>457</v>
       </c>
-      <c r="D150" s="25"/>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="24" t="s">
+      <c r="C179" s="29" t="s">
         <v>458</v>
       </c>
-      <c r="B151" t="s">
+      <c r="D179" s="29"/>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="59"/>
+      <c r="B180" t="s">
         <v>459</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C180" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="24"/>
-      <c r="B152" t="s">
+    <row r="181" spans="1:4">
+      <c r="A181" s="59"/>
+      <c r="B181" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C181" s="29" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="24"/>
-      <c r="B153" t="s">
+      <c r="D181" s="29"/>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="59"/>
+      <c r="B182" t="s">
         <v>463</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C182" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="24"/>
-      <c r="B154" s="25" t="s">
+    <row r="183" spans="1:4">
+      <c r="A183" s="59"/>
+      <c r="B183" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="C154" s="25" t="s">
+      <c r="C183" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="D154" s="25"/>
-    </row>
-    <row r="155" s="21" customFormat="1" spans="1:4">
-      <c r="A155" s="32"/>
-      <c r="B155" s="25" t="s">
+      <c r="D183" s="29"/>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="59"/>
+      <c r="B184" t="s">
         <v>467</v>
       </c>
-      <c r="C155" s="25" t="s">
+      <c r="C184" t="s">
         <v>468</v>
       </c>
-      <c r="D155" s="25"/>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="59"/>
+      <c r="B185" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="C185" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="D185" s="29"/>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="59"/>
+      <c r="B186" t="s">
+        <v>471</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="187" s="23" customFormat="1" spans="1:4">
+      <c r="A187" s="59"/>
+      <c r="B187" s="60" t="s">
+        <v>473</v>
+      </c>
+      <c r="C187" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="D187" s="60"/>
+    </row>
+    <row r="188" s="22" customFormat="1" spans="1:4">
+      <c r="A188" s="27"/>
+      <c r="B188" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C188" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D188" s="27"/>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="59"/>
+      <c r="B189" t="s">
+        <v>397</v>
+      </c>
+      <c r="C189" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="59"/>
+      <c r="B190" t="s">
+        <v>399</v>
+      </c>
+      <c r="C190" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="59"/>
+      <c r="B191" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="C191" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="D191" s="29"/>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="59"/>
+      <c r="B192" t="s">
+        <v>478</v>
+      </c>
+      <c r="C192" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="59"/>
+      <c r="B193" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="C193" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="D193" s="29"/>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="59"/>
+      <c r="B194" t="s">
+        <v>482</v>
+      </c>
+      <c r="C194" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="59"/>
+      <c r="B195" t="s">
+        <v>484</v>
+      </c>
+      <c r="C195" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="59"/>
+      <c r="B196" t="s">
+        <v>486</v>
+      </c>
+      <c r="C196" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="59"/>
+      <c r="B197" t="s">
+        <v>488</v>
+      </c>
+      <c r="C197" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="59"/>
+      <c r="B198" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="C198" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="D198" s="29"/>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="59"/>
+      <c r="B199" t="s">
+        <v>492</v>
+      </c>
+      <c r="C199" t="s">
+        <v>493</v>
+      </c>
+      <c r="D199" s="59" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="59"/>
+      <c r="B200" t="s">
+        <v>495</v>
+      </c>
+      <c r="C200" t="s">
+        <v>496</v>
+      </c>
+      <c r="D200" s="59" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="201" s="23" customFormat="1" spans="1:4">
+      <c r="A201" s="62"/>
+      <c r="B201" s="29" t="s">
+        <v>498</v>
+      </c>
+      <c r="C201" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="D201" s="29"/>
+    </row>
+    <row r="202" s="23" customFormat="1" spans="1:4">
+      <c r="A202" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B202" s="58"/>
+      <c r="C202" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D202" s="58"/>
+    </row>
+    <row r="203" s="22" customFormat="1" spans="1:4">
+      <c r="A203" s="27"/>
+      <c r="B203" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C203" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="D203" s="27"/>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="57" t="s">
+        <v>501</v>
+      </c>
+      <c r="B204" t="s">
+        <v>502</v>
+      </c>
+      <c r="C204" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="57"/>
+      <c r="B205" t="s">
+        <v>504</v>
+      </c>
+      <c r="C205" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="57"/>
+      <c r="B206" t="s">
+        <v>506</v>
+      </c>
+      <c r="C206" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="57"/>
+      <c r="B207" s="29" t="s">
+        <v>508</v>
+      </c>
+      <c r="C207" s="29" t="s">
+        <v>509</v>
+      </c>
+      <c r="D207" s="29"/>
+    </row>
+    <row r="208" s="23" customFormat="1" spans="1:4">
+      <c r="A208" s="63"/>
+      <c r="B208" s="29" t="s">
+        <v>510</v>
+      </c>
+      <c r="C208" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="D208" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A22:A39"/>
-    <mergeCell ref="A40:A50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:A83"/>
-    <mergeCell ref="A84:A91"/>
-    <mergeCell ref="A92:A99"/>
-    <mergeCell ref="A100:A106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A114:A150"/>
-    <mergeCell ref="A151:A155"/>
-    <mergeCell ref="D43:D50"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="D107:D109"/>
+  <mergeCells count="5">
+    <mergeCell ref="A204:A208"/>
+    <mergeCell ref="D60:D69"/>
+    <mergeCell ref="D75:D82"/>
+    <mergeCell ref="D85:D88"/>
+    <mergeCell ref="D152:D154"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7536,8 +8336,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7548,36 +8348,36 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
       <c r="A1" s="18" t="s">
-        <v>469</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" ht="49.5" spans="1:2">
       <c r="A2" s="19" t="s">
-        <v>470</v>
+        <v>513</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>471</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" ht="37.5" spans="1:2">
       <c r="A3" s="19" t="s">
-        <v>472</v>
+        <v>515</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="1:1">
       <c r="A5" s="18" t="s">
-        <v>474</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:16384">
       <c r="A6" s="19" t="s">
-        <v>475</v>
+        <v>518</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>476</v>
+        <v>519</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="11"/>
@@ -23964,68 +24764,68 @@
     </row>
     <row r="7" ht="73.5" spans="1:2">
       <c r="A7" s="19" t="s">
-        <v>477</v>
+        <v>520</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>478</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" ht="18.75" spans="1:1">
       <c r="A9" s="18" t="s">
-        <v>479</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" ht="220.5" spans="1:2">
       <c r="A10" s="19" t="s">
-        <v>480</v>
+        <v>523</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>481</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" ht="25.5" spans="1:2">
       <c r="A11" s="19" t="s">
-        <v>482</v>
+        <v>525</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>483</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:2">
       <c r="A12" s="19" t="s">
-        <v>484</v>
+        <v>527</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>485</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14" ht="18.75" spans="1:1">
       <c r="A14" s="18" t="s">
-        <v>486</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" ht="99" spans="1:2">
       <c r="A15" s="19" t="s">
-        <v>487</v>
+        <v>530</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>488</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16" ht="135" spans="1:2">
       <c r="A16" s="19" t="s">
-        <v>489</v>
+        <v>532</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>490</v>
+        <v>533</v>
       </c>
     </row>
     <row r="17" ht="163.5" spans="1:2">
       <c r="A17" s="19" t="s">
-        <v>491</v>
+        <v>534</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -24039,10 +24839,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -24054,30 +24854,30 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>493</v>
+        <v>536</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>494</v>
+        <v>537</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>495</v>
+        <v>538</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>497</v>
+        <v>540</v>
       </c>
       <c r="B3" t="s">
-        <v>498</v>
+        <v>541</v>
       </c>
       <c r="C3" s="3">
         <v>4</v>
@@ -24085,10 +24885,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>499</v>
+        <v>542</v>
       </c>
       <c r="B4" t="s">
-        <v>500</v>
+        <v>543</v>
       </c>
       <c r="C4" s="3">
         <v>816</v>
@@ -24096,264 +24896,264 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>501</v>
+        <v>544</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>502</v>
+        <v>545</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>503</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>504</v>
+        <v>547</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>506</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>507</v>
+        <v>550</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>508</v>
+        <v>551</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>509</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>510</v>
+        <v>553</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>511</v>
+        <v>554</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>509</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="B9" t="s">
-        <v>513</v>
+        <v>556</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>514</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>515</v>
+        <v>558</v>
       </c>
       <c r="B10" t="s">
-        <v>516</v>
+        <v>559</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>517</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="51" spans="1:4">
       <c r="A11" s="10" t="s">
-        <v>518</v>
+        <v>561</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>519</v>
+        <v>562</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>520</v>
+        <v>563</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:4">
       <c r="A12" s="7" t="s">
-        <v>521</v>
+        <v>564</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>522</v>
+        <v>565</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>523</v>
+        <v>566</v>
       </c>
       <c r="B13" t="s">
-        <v>524</v>
+        <v>567</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>525</v>
+        <v>568</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>507</v>
+        <v>550</v>
       </c>
       <c r="B14" t="s">
-        <v>526</v>
+        <v>569</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>525</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>510</v>
+        <v>553</v>
       </c>
       <c r="B15" t="s">
-        <v>527</v>
+        <v>570</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>525</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:4">
       <c r="A16" s="7" t="s">
-        <v>528</v>
+        <v>571</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>530</v>
+        <v>573</v>
       </c>
       <c r="B17" t="s">
-        <v>531</v>
+        <v>574</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>532</v>
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>533</v>
+        <v>576</v>
       </c>
       <c r="B18" t="s">
-        <v>534</v>
+        <v>577</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>535</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>536</v>
+        <v>579</v>
       </c>
       <c r="B19" t="s">
-        <v>537</v>
+        <v>580</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>539</v>
+        <v>582</v>
       </c>
       <c r="B20" t="s">
-        <v>540</v>
+        <v>583</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>506</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>541</v>
+        <v>584</v>
       </c>
       <c r="B21" t="s">
-        <v>542</v>
+        <v>585</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>543</v>
+        <v>586</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:4">
       <c r="A22" s="7" t="s">
-        <v>544</v>
+        <v>587</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>545</v>
+        <v>588</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>546</v>
+        <v>589</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>547</v>
+        <v>590</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>514</v>
+        <v>557</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>548</v>
+        <v>591</v>
       </c>
       <c r="B24" t="s">
-        <v>549</v>
+        <v>592</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>550</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>551</v>
+        <v>594</v>
       </c>
       <c r="B25" t="s">
-        <v>552</v>
+        <v>595</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>553</v>
+        <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>554</v>
+        <v>597</v>
       </c>
       <c r="B26" t="s">
-        <v>555</v>
+        <v>598</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>553</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="18.75" spans="1:4">
       <c r="A27" s="13" t="s">
-        <v>556</v>
+        <v>599</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:4">
       <c r="A28" s="7" t="s">
-        <v>557</v>
+        <v>600</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>558</v>
+        <v>601</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" customFormat="1" spans="1:4">
       <c r="A29" s="14" t="s">
-        <v>559</v>
+        <v>602</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="3"/>
@@ -24361,395 +25161,425 @@
     </row>
     <row r="30" s="2" customFormat="1" spans="1:4">
       <c r="A30" s="7" t="s">
-        <v>560</v>
+        <v>603</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>561</v>
+        <v>604</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="14" t="s">
-        <v>559</v>
+        <v>602</v>
       </c>
       <c r="B31" s="14"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="18.75" spans="1:4">
       <c r="A32" s="13" t="s">
-        <v>562</v>
+        <v>605</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:4">
       <c r="A33" s="15" t="s">
-        <v>563</v>
+        <v>606</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
     </row>
     <row r="34" ht="27" spans="1:2">
       <c r="A34" t="s">
-        <v>564</v>
+        <v>607</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>565</v>
+        <v>608</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:2">
       <c r="A35" t="s">
-        <v>566</v>
+        <v>609</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>567</v>
+        <v>610</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>568</v>
+        <v>611</v>
       </c>
       <c r="B36" t="s">
-        <v>569</v>
+        <v>612</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>570</v>
+        <v>613</v>
       </c>
       <c r="B37" t="s">
-        <v>571</v>
+        <v>614</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="18.75" spans="1:4">
       <c r="A38" s="13" t="s">
-        <v>572</v>
+        <v>615</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
     <row r="39" ht="27" spans="1:2">
       <c r="A39" t="s">
-        <v>564</v>
+        <v>607</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>565</v>
+        <v>608</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:2">
       <c r="A40" t="s">
-        <v>566</v>
+        <v>609</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>567</v>
+        <v>610</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>573</v>
+        <v>616</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>574</v>
+        <v>617</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>575</v>
+        <v>618</v>
       </c>
       <c r="B42" t="s">
-        <v>576</v>
+        <v>619</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="18.75" spans="1:4">
       <c r="A43" s="13" t="s">
-        <v>577</v>
+        <v>620</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
     </row>
     <row r="44" ht="27" spans="1:2">
       <c r="A44" t="s">
-        <v>578</v>
+        <v>621</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>579</v>
+        <v>622</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>580</v>
+        <v>623</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>581</v>
+        <v>624</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>582</v>
+        <v>625</v>
       </c>
       <c r="B46" t="s">
-        <v>583</v>
+        <v>626</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="18.75" spans="1:4">
       <c r="A47" s="13" t="s">
-        <v>584</v>
+        <v>627</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:4">
       <c r="A48" s="7" t="s">
-        <v>585</v>
+        <v>628</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>586</v>
+        <v>629</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
     </row>
     <row r="49" customFormat="1" spans="1:4">
       <c r="A49" t="s">
-        <v>587</v>
+        <v>630</v>
       </c>
       <c r="B49" t="s">
-        <v>588</v>
-      </c>
-      <c r="C49" s="3"/>
+        <v>631</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>632</v>
+      </c>
       <c r="D49" s="3"/>
     </row>
     <row r="50" customFormat="1" spans="1:4">
       <c r="A50" t="s">
-        <v>589</v>
+        <v>633</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="C50" s="3"/>
+        <v>634</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>635</v>
+      </c>
       <c r="D50" s="3"/>
     </row>
     <row r="51" s="2" customFormat="1" spans="1:4">
       <c r="A51" s="7" t="s">
-        <v>591</v>
+        <v>636</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>592</v>
+        <v>637</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" customFormat="1" spans="1:4">
       <c r="A52" t="s">
-        <v>593</v>
+        <v>638</v>
       </c>
       <c r="B52" t="s">
-        <v>594</v>
-      </c>
-      <c r="C52" s="3"/>
+        <v>639</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>557</v>
+      </c>
       <c r="D52" s="3"/>
     </row>
     <row r="53" customFormat="1" spans="1:4">
       <c r="A53" t="s">
-        <v>595</v>
+        <v>640</v>
       </c>
       <c r="B53" t="s">
-        <v>596</v>
-      </c>
-      <c r="C53" s="3"/>
+        <v>641</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>557</v>
+      </c>
       <c r="D53" s="3"/>
     </row>
     <row r="54" customFormat="1" spans="1:4">
       <c r="A54" t="s">
-        <v>597</v>
+        <v>642</v>
       </c>
       <c r="B54" t="s">
-        <v>598</v>
-      </c>
-      <c r="C54" s="3"/>
+        <v>643</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>644</v>
+      </c>
       <c r="D54" s="3"/>
     </row>
     <row r="55" s="2" customFormat="1" spans="1:4">
       <c r="A55" s="7" t="s">
-        <v>599</v>
+        <v>645</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>600</v>
+        <v>646</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
     </row>
     <row r="56" customFormat="1" spans="1:4">
       <c r="A56" t="s">
-        <v>601</v>
+        <v>647</v>
       </c>
       <c r="B56" t="s">
-        <v>602</v>
+        <v>648</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
     <row r="57" customFormat="1" spans="1:4">
       <c r="A57" t="s">
-        <v>603</v>
+        <v>649</v>
       </c>
       <c r="B57" t="s">
-        <v>604</v>
+        <v>650</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
     </row>
     <row r="58" s="2" customFormat="1" spans="1:4">
       <c r="A58" s="7" t="s">
-        <v>605</v>
+        <v>651</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>606</v>
+        <v>652</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="18.75" spans="1:4">
-      <c r="A59" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>593</v>
-      </c>
-      <c r="B60" t="s">
-        <v>608</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>595</v>
-      </c>
-      <c r="B61" t="s">
-        <v>609</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>514</v>
-      </c>
+    <row r="59" s="2" customFormat="1" spans="1:4">
+      <c r="A59" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" s="2" customFormat="1" spans="1:4">
+      <c r="A60" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A61" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>597</v>
+        <v>638</v>
       </c>
       <c r="B62" t="s">
-        <v>610</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>611</v>
+        <v>658</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>612</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>613</v>
+        <v>640</v>
+      </c>
+      <c r="B63" t="s">
+        <v>659</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>614</v>
+        <v>557</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>615</v>
+        <v>642</v>
       </c>
       <c r="B64" t="s">
-        <v>616</v>
+        <v>660</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="1" ht="18.75" spans="1:4">
-      <c r="A65" s="13" t="s">
-        <v>618</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-    </row>
-    <row r="66" s="2" customFormat="1" spans="1:4">
-      <c r="A66" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>621</v>
-      </c>
-      <c r="B67" t="s">
-        <v>622</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>623</v>
-      </c>
-      <c r="B68" t="s">
-        <v>622</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="69" s="2" customFormat="1" spans="1:4">
-      <c r="A69" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-    </row>
-    <row r="70" ht="27" spans="1:3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>662</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>665</v>
+      </c>
+      <c r="B66" t="s">
+        <v>666</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A67" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" s="2" customFormat="1" spans="1:4">
+      <c r="A68" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>671</v>
+      </c>
+      <c r="B69" t="s">
+        <v>672</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>627</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>628</v>
+        <v>673</v>
+      </c>
+      <c r="B70" t="s">
+        <v>672</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>629</v>
-      </c>
-      <c r="B71" t="s">
-        <v>630</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="71" s="2" customFormat="1" spans="1:4">
+      <c r="A71" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" ht="27" spans="1:3">
       <c r="A72" t="s">
-        <v>631</v>
-      </c>
-      <c r="B72" t="s">
+        <v>676</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>678</v>
+      </c>
+      <c r="B73" t="s">
+        <v>679</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>525</v>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>680</v>
+      </c>
+      <c r="B74" t="s">
+        <v>681</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>568</v>
       </c>
     </row>
   </sheetData>
